--- a/GR4Jdd_conceptualisation.xlsx
+++ b/GR4Jdd_conceptualisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/l_trotter_unimelb_edu_au/Documents/Documents/Conferences/11_MARRMoT_tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{7E9C6C4A-B860-429F-B129-0CA7A162A89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0A4388-287C-45EA-AAF2-8D2F2B4CD135}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{7E9C6C4A-B860-429F-B129-0CA7A162A89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D23D48-59D0-492B-B342-2DB8BCF287BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A22101B4-BB84-4338-BDA8-43D7E5888881}"/>
   </bookViews>
@@ -16,8 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="dd">Sheet1!$C$5</definedName>
     <definedName name="En">Sheet1!$C$3</definedName>
     <definedName name="Pn">Sheet1!$C$2</definedName>
+    <definedName name="x_1">Sheet1!$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Pn =</t>
   </si>
@@ -82,6 +84,12 @@
   </si>
   <si>
     <t>Es</t>
+  </si>
+  <si>
+    <t>Perc</t>
+  </si>
+  <si>
+    <t>Perc(Sstar)</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1298,1199 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180.00000000000017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210.00000000000017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>360.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>420.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510.00000000000017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>540.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>570.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1170.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1260.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1290.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1320.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1350.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1380.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1410.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1440.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1470.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1500.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1530.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1560.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1590.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1620.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1650.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1680.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1710.0000000000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1740.0000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1770.0000000000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1800.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1830.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1860.0000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>5.8527663465935058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5287590306355732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5969035208047533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9178344764517576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3888888888888868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98367443987196868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67909099222679292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45511111111110963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29456058527663359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18289894833104639</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10799999999999954</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9932327389117218E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0739826245998914E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.422222222222214E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7155921353451841E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8728852309099063E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4444444444443975E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8527663465934153E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8289894833104135E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE43-4B15-BFC6-D9A2E9EFECC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perc(Sstar)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180.00000000000017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210.00000000000017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>360.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>420.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510.00000000000017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>540.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>570.00000000000023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1170.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1260.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1290.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1320.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1350.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1380.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1410.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1440.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1470.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1500.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1530.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1560.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1590.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1620.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1650.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1680.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1710.0000000000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1740.0000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1770.0000000000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1800.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1830.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1860.0000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$10:$J$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>5.8527663465935058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5318793236232793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4665562802820058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6168034450582778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9471654148615591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.426441543610661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0274023531873664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72650598362690644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50361471336900943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3417116066909584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22661739538264283</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1467077966835855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2631648707324793E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7030575910646281E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4261486373780493E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0124184133939932E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.159785236850935E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5920292034831853E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7194368049215157E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.098626950635321E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.192825163335211E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8744203758666362E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0378312822971505E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4257531902675911E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4934647432990152E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.429771599420866E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.104654994576098E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0485046088342293E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.746982917408986E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9042114528418689E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3465231126720883E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6984066453836725E-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.1047945080661746E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.2866829459163685E-6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9907646168893028E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0526430996719957E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3637044991308889E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8509698760612927E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4646193636478294E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1701316720376885E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.4324873627094096E-7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.6669877829003627E-7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2803149486769088E-7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.1816746012121686E-7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.3041293406988107E-7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5978217782154384E-7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0252563987134936E-7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.5579770392230149E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1742017584487399E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.857121915989952E-7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5936670148699265E-7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3735994853974253E-7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1888454626101683E-7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0329959166667476E-7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.0093183178185438E-8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.885404697217024E-8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.9249904552055851E-8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.1010867373257665E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.3916607359075335E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.778638313620552E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.2471240320681149E-8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.784787735248296E-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3813795024489408E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE43-4B15-BFC6-D9A2E9EFECC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="804377072"/>
+        <c:axId val="804383632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="804377072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>D1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804383632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="804383632"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804377072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1846,20 +3046,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1884,7 +3600,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EFBF1DE-6053-4C98-8E4E-E8D05EBE1DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2184,15 +3942,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378343AF-3F86-4D3A-B59A-ADCB34249CD8}">
-  <dimension ref="A2:H72"/>
+  <dimension ref="A2:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2200,7 +3961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2208,7 +3969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +3977,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2224,21 +3985,21 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2260,8 +4021,14 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2269,601 +4036,761 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C41" si="0">B10*$C$4</f>
+        <f>B10*x_1</f>
         <v>600</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D41" si="1">$C$4-C10</f>
+        <f>x_1-C10</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E41" si="2">(-($C$4+D10)+SQRT(($C$4+D10)^2+4*($C$5-1)*D10*$C$4))/(2*($C$5-1))</f>
+        <f>(-(x_1+D10)+SQRT((x_1+D10)^2+4*(dd-1)*D10*x_1))/(2*(dd-1))</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>$C$4-E10</f>
+        <f>x_1-E10</f>
         <v>600</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G41" si="3">Pn*(1-(F10/$C$4)^2)</f>
+        <f>Pn*(1-(F10/x_1)^2)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H41" si="4">En*(2*(F10/$C$4)-((F10/$C$4)^2))</f>
+        <f>En*(2*(F10/x_1)-((F10/x_1)^2))</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C10,0)^5</f>
+        <v>5.8527663465935058</v>
+      </c>
+      <c r="J10">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F10,0)^5</f>
+        <v>5.8527663465935058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>B10-0.05</f>
         <v>0.95</v>
       </c>
       <c r="C11">
+        <f>B11*x_1</f>
+        <v>570</v>
+      </c>
+      <c r="D11">
+        <f>x_1-C11</f>
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <f>(-(x_1+D11)+SQRT((x_1+D11)^2+4*(dd-1)*D11*x_1))/(2*(dd-1))</f>
+        <v>29.921476191429498</v>
+      </c>
+      <c r="F11">
+        <f>x_1-E11</f>
+        <v>570.07852380857048</v>
+      </c>
+      <c r="G11">
+        <f>Pn*(1-(F11/x_1)^2)</f>
+        <v>9.7251324145114282</v>
+      </c>
+      <c r="H11">
+        <f>En*(2*(F11/x_1)-((F11/x_1)^2))</f>
+        <v>99.751307017368248</v>
+      </c>
+      <c r="I11">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C11,0)^5</f>
+        <v>4.5287590306355732</v>
+      </c>
+      <c r="J11">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F11,0)^5</f>
+        <v>4.5318793236232793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" ref="B12:B72" si="0">B11-0.05</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C12">
+        <f>B12*x_1</f>
+        <v>540</v>
+      </c>
+      <c r="D12">
+        <f>x_1-C12</f>
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <f>(-(x_1+D12)+SQRT((x_1+D12)^2+4*(dd-1)*D12*x_1))/(2*(dd-1))</f>
+        <v>59.670518553337956</v>
+      </c>
+      <c r="F12">
+        <f>x_1-E12</f>
+        <v>540.32948144666204</v>
+      </c>
+      <c r="G12">
+        <f>Pn*(1-(F12/x_1)^2)</f>
+        <v>18.901125410994801</v>
+      </c>
+      <c r="H12">
+        <f>En*(2*(F12/x_1)-((F12/x_1)^2))</f>
+        <v>99.010952559882142</v>
+      </c>
+      <c r="I12">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C12,0)^5</f>
+        <v>3.4559999999999995</v>
+      </c>
+      <c r="J12">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F12,0)^5</f>
+        <v>3.4665562802820058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
         <f t="shared" si="0"/>
-        <v>570</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>29.921476191429498</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F72" si="5">$C$4-E11</f>
-        <v>570.07852380857048</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>9.7251324145114282</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>99.751307017368248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f t="shared" ref="B12:B72" si="6">B11-0.05</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="C12">
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="C13">
+        <f>B13*x_1</f>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="D13">
+        <f>x_1-C13</f>
+        <v>90.000000000000057</v>
+      </c>
+      <c r="E13">
+        <f>(-(x_1+D13)+SQRT((x_1+D13)^2+4*(dd-1)*D13*x_1))/(2*(dd-1))</f>
+        <v>89.220764638461048</v>
+      </c>
+      <c r="F13">
+        <f>x_1-E13</f>
+        <v>510.77923536153895</v>
+      </c>
+      <c r="G13">
+        <f>Pn*(1-(F13/x_1)^2)</f>
+        <v>27.529047978744892</v>
+      </c>
+      <c r="H13">
+        <f>En*(2*(F13/x_1)-((F13/x_1)^2))</f>
+        <v>97.788793099257873</v>
+      </c>
+      <c r="I13">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C13,0)^5</f>
+        <v>2.5969035208047533</v>
+      </c>
+      <c r="J13">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F13,0)^5</f>
+        <v>2.6168034450582778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>59.670518553337956</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="5"/>
-        <v>540.32948144666204</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>18.901125410994801</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>99.010952559882142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f t="shared" si="6"/>
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="C13">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="C14">
+        <f>B14*x_1</f>
+        <v>479.99999999999989</v>
+      </c>
+      <c r="D14">
+        <f>x_1-C14</f>
+        <v>120.00000000000011</v>
+      </c>
+      <c r="E14">
+        <f>(-(x_1+D14)+SQRT((x_1+D14)^2+4*(dd-1)*D14*x_1))/(2*(dd-1))</f>
+        <v>118.540697329411</v>
+      </c>
+      <c r="F14">
+        <f>x_1-E14</f>
+        <v>481.45930267058901</v>
+      </c>
+      <c r="G14">
+        <f>Pn*(1-(F14/x_1)^2)</f>
+        <v>35.610261075541715</v>
+      </c>
+      <c r="H14">
+        <f>En*(2*(F14/x_1)-((F14/x_1)^2))</f>
+        <v>96.096695299071371</v>
+      </c>
+      <c r="I14">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C14,0)^5</f>
+        <v>1.9178344764517576</v>
+      </c>
+      <c r="J14">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F14,0)^5</f>
+        <v>1.9471654148615591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
         <f t="shared" si="0"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>90.000000000000057</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>89.220764638461048</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="5"/>
-        <v>510.77923536153895</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>27.529047978744892</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>97.788793099257873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f t="shared" si="6"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="C14">
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="C15">
+        <f>B15*x_1</f>
+        <v>449.99999999999989</v>
+      </c>
+      <c r="D15">
+        <f>x_1-C15</f>
+        <v>150.00000000000011</v>
+      </c>
+      <c r="E15">
+        <f>(-(x_1+D15)+SQRT((x_1+D15)^2+4*(dd-1)*D15*x_1))/(2*(dd-1))</f>
+        <v>147.59248669739182</v>
+      </c>
+      <c r="F15">
+        <f>x_1-E15</f>
+        <v>452.40751330260821</v>
+      </c>
+      <c r="G15">
+        <f>Pn*(1-(F15/x_1)^2)</f>
+        <v>43.146511640930662</v>
+      </c>
+      <c r="H15">
+        <f>En*(2*(F15/x_1)-((F15/x_1)^2))</f>
+        <v>93.9490160751334</v>
+      </c>
+      <c r="I15">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C15,0)^5</f>
+        <v>1.3888888888888868</v>
+      </c>
+      <c r="J15">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F15,0)^5</f>
+        <v>1.426441543610661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
         <f t="shared" si="0"/>
-        <v>479.99999999999989</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>120.00000000000011</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>118.540697329411</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>481.45930267058901</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>35.610261075541715</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
-        <v>96.096695299071371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f t="shared" si="6"/>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="C15">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="C16">
+        <f>B16*x_1</f>
+        <v>419.99999999999983</v>
+      </c>
+      <c r="D16">
+        <f>x_1-C16</f>
+        <v>180.00000000000017</v>
+      </c>
+      <c r="E16">
+        <f>(-(x_1+D16)+SQRT((x_1+D16)^2+4*(dd-1)*D16*x_1))/(2*(dd-1))</f>
+        <v>176.33057409171604</v>
+      </c>
+      <c r="F16">
+        <f>x_1-E16</f>
+        <v>423.66942590828398</v>
+      </c>
+      <c r="G16">
+        <f>Pn*(1-(F16/x_1)^2)</f>
+        <v>50.140060430706953</v>
+      </c>
+      <c r="H16">
+        <f>En*(2*(F16/x_1)-((F16/x_1)^2))</f>
+        <v>91.363202400134952</v>
+      </c>
+      <c r="I16">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C16,0)^5</f>
+        <v>0.98367443987196868</v>
+      </c>
+      <c r="J16">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F16,0)^5</f>
+        <v>1.0274023531873664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17">
         <f t="shared" si="0"/>
-        <v>449.99999999999989</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>150.00000000000011</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>147.59248669739182</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>452.40751330260821</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>43.146511640930662</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>93.9490160751334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f t="shared" si="6"/>
-        <v>0.69999999999999973</v>
-      </c>
-      <c r="C16">
+        <v>0.64999999999999969</v>
+      </c>
+      <c r="C17">
+        <f>B17*x_1</f>
+        <v>389.99999999999983</v>
+      </c>
+      <c r="D17">
+        <f>x_1-C17</f>
+        <v>210.00000000000017</v>
+      </c>
+      <c r="E17">
+        <f>(-(x_1+D17)+SQRT((x_1+D17)^2+4*(dd-1)*D17*x_1))/(2*(dd-1))</f>
+        <v>204.69996556392329</v>
+      </c>
+      <c r="F17">
+        <f>x_1-E17</f>
+        <v>395.30003443607671</v>
+      </c>
+      <c r="G17">
+        <f>Pn*(1-(F17/x_1)^2)</f>
+        <v>56.593856326343492</v>
+      </c>
+      <c r="H17">
+        <f>En*(2*(F17/x_1)-((F17/x_1)^2))</f>
+        <v>88.360534471702394</v>
+      </c>
+      <c r="I17">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C17,0)^5</f>
+        <v>0.67909099222679292</v>
+      </c>
+      <c r="J17">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F17,0)^5</f>
+        <v>0.72650598362690644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18">
         <f t="shared" si="0"/>
-        <v>419.99999999999983</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>180.00000000000017</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>176.33057409171604</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>423.66942590828398</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>50.140060430706953</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
-        <v>91.363202400134952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f t="shared" si="6"/>
-        <v>0.64999999999999969</v>
-      </c>
-      <c r="C17">
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="C18">
+        <f>B18*x_1</f>
+        <v>359.99999999999977</v>
+      </c>
+      <c r="D18">
+        <f>x_1-C18</f>
+        <v>240.00000000000023</v>
+      </c>
+      <c r="E18">
+        <f>(-(x_1+D18)+SQRT((x_1+D18)^2+4*(dd-1)*D18*x_1))/(2*(dd-1))</f>
+        <v>232.63422376702761</v>
+      </c>
+      <c r="F18">
+        <f>x_1-E18</f>
+        <v>367.36577623297239</v>
+      </c>
+      <c r="G18">
+        <f>Pn*(1-(F18/x_1)^2)</f>
+        <v>62.511774014651579</v>
+      </c>
+      <c r="H18">
+        <f>En*(2*(F18/x_1)-((F18/x_1)^2))</f>
+        <v>84.967032758975705</v>
+      </c>
+      <c r="I18">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C18,0)^5</f>
+        <v>0.45511111111110963</v>
+      </c>
+      <c r="J18">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F18,0)^5</f>
+        <v>0.50361471336900943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19">
         <f t="shared" si="0"/>
-        <v>389.99999999999983</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>210.00000000000017</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>204.69996556392329</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>395.30003443607671</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>56.593856326343492</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
-        <v>88.360534471702394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f t="shared" si="6"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="C18">
+        <v>0.5499999999999996</v>
+      </c>
+      <c r="C19">
+        <f>B19*x_1</f>
+        <v>329.99999999999977</v>
+      </c>
+      <c r="D19">
+        <f>x_1-C19</f>
+        <v>270.00000000000023</v>
+      </c>
+      <c r="E19">
+        <f>(-(x_1+D19)+SQRT((x_1+D19)^2+4*(dd-1)*D19*x_1))/(2*(dd-1))</f>
+        <v>260.0531986398687</v>
+      </c>
+      <c r="F19">
+        <f>x_1-E19</f>
+        <v>339.9468013601313</v>
+      </c>
+      <c r="G19">
+        <f>Pn*(1-(F19/x_1)^2)</f>
+        <v>67.898936734726504</v>
+      </c>
+      <c r="H19">
+        <f>En*(2*(F19/x_1)-((F19/x_1)^2))</f>
+        <v>81.214537188103606</v>
+      </c>
+      <c r="I19">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C19,0)^5</f>
+        <v>0.29456058527663359</v>
+      </c>
+      <c r="J19">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F19,0)^5</f>
+        <v>0.3417116066909584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20">
         <f t="shared" si="0"/>
-        <v>359.99999999999977</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>240.00000000000023</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>232.63422376702761</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="5"/>
-        <v>367.36577623297239</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>62.511774014651579</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>84.967032758975705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f t="shared" si="6"/>
-        <v>0.5499999999999996</v>
-      </c>
-      <c r="C19">
+        <v>0.49999999999999961</v>
+      </c>
+      <c r="C20">
+        <f>B20*x_1</f>
+        <v>299.99999999999977</v>
+      </c>
+      <c r="D20">
+        <f>x_1-C20</f>
+        <v>300.00000000000023</v>
+      </c>
+      <c r="E20">
+        <f>(-(x_1+D20)+SQRT((x_1+D20)^2+4*(dd-1)*D20*x_1))/(2*(dd-1))</f>
+        <v>286.86063842843339</v>
+      </c>
+      <c r="F20">
+        <f>x_1-E20</f>
+        <v>313.13936157156661</v>
+      </c>
+      <c r="G20">
+        <f>Pn*(1-(F20/x_1)^2)</f>
+        <v>72.762150065153236</v>
+      </c>
+      <c r="H20">
+        <f>En*(2*(F20/x_1)-((F20/x_1)^2))</f>
+        <v>77.141937255675444</v>
+      </c>
+      <c r="I20">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C20,0)^5</f>
+        <v>0.18289894833104639</v>
+      </c>
+      <c r="J20">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F20,0)^5</f>
+        <v>0.22661739538264283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21">
         <f t="shared" si="0"/>
-        <v>329.99999999999977</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>270.00000000000023</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>260.0531986398687</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="5"/>
-        <v>339.9468013601313</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>67.898936734726504</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>81.214537188103606</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f t="shared" si="6"/>
-        <v>0.49999999999999961</v>
-      </c>
-      <c r="C20">
+        <v>0.44999999999999962</v>
+      </c>
+      <c r="C21">
+        <f>B21*x_1</f>
+        <v>269.99999999999977</v>
+      </c>
+      <c r="D21">
+        <f>x_1-C21</f>
+        <v>330.00000000000023</v>
+      </c>
+      <c r="E21">
+        <f>(-(x_1+D21)+SQRT((x_1+D21)^2+4*(dd-1)*D21*x_1))/(2*(dd-1))</f>
+        <v>312.94200177633263</v>
+      </c>
+      <c r="F21">
+        <f>x_1-E21</f>
+        <v>287.05799822366737</v>
+      </c>
+      <c r="G21">
+        <f>Pn*(1-(F21/x_1)^2)</f>
+        <v>77.110473793283603</v>
+      </c>
+      <c r="H21">
+        <f>En*(2*(F21/x_1)-((F21/x_1)^2))</f>
+        <v>72.796473201172731</v>
+      </c>
+      <c r="I21">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C21,0)^5</f>
+        <v>0.10799999999999954</v>
+      </c>
+      <c r="J21">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F21,0)^5</f>
+        <v>0.1467077966835855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22">
         <f t="shared" si="0"/>
-        <v>299.99999999999977</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>300.00000000000023</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>286.86063842843339</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="5"/>
-        <v>313.13936157156661</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>72.762150065153236</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>77.141937255675444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f t="shared" si="6"/>
-        <v>0.44999999999999962</v>
-      </c>
-      <c r="C21">
+        <v>0.39999999999999963</v>
+      </c>
+      <c r="C22">
+        <f>B22*x_1</f>
+        <v>239.99999999999977</v>
+      </c>
+      <c r="D22">
+        <f>x_1-C22</f>
+        <v>360.00000000000023</v>
+      </c>
+      <c r="E22">
+        <f>(-(x_1+D22)+SQRT((x_1+D22)^2+4*(dd-1)*D22*x_1))/(2*(dd-1))</f>
+        <v>338.16307509065768</v>
+      </c>
+      <c r="F22">
+        <f>x_1-E22</f>
+        <v>261.83692490934232</v>
+      </c>
+      <c r="G22">
+        <f>Pn*(1-(F22/x_1)^2)</f>
+        <v>80.955951320560942</v>
+      </c>
+      <c r="H22">
+        <f>En*(2*(F22/x_1)-((F22/x_1)^2))</f>
+        <v>68.234926290341718</v>
+      </c>
+      <c r="I22">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C22,0)^5</f>
+        <v>5.9932327389117218E-2</v>
+      </c>
+      <c r="J22">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F22,0)^5</f>
+        <v>9.2631648707324793E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23">
         <f t="shared" si="0"/>
-        <v>269.99999999999977</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>330.00000000000023</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>312.94200177633263</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>287.05799822366737</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>77.110473793283603</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>72.796473201172731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f t="shared" si="6"/>
-        <v>0.39999999999999963</v>
-      </c>
-      <c r="C22">
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="C23">
+        <f>B23*x_1</f>
+        <v>209.99999999999977</v>
+      </c>
+      <c r="D23">
+        <f>x_1-C23</f>
+        <v>390.00000000000023</v>
+      </c>
+      <c r="E23">
+        <f>(-(x_1+D23)+SQRT((x_1+D23)^2+4*(dd-1)*D23*x_1))/(2*(dd-1))</f>
+        <v>362.37038492967031</v>
+      </c>
+      <c r="F23">
+        <f>x_1-E23</f>
+        <v>237.62961507032969</v>
+      </c>
+      <c r="G23">
+        <f>Pn*(1-(F23/x_1)^2)</f>
+        <v>84.314490567090814</v>
+      </c>
+      <c r="H23">
+        <f>En*(2*(F23/x_1)-((F23/x_1)^2))</f>
+        <v>63.524362257200714</v>
+      </c>
+      <c r="I23">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C23,0)^5</f>
+        <v>3.0739826245998914E-2</v>
+      </c>
+      <c r="J23">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F23,0)^5</f>
+        <v>5.7030575910646281E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24">
         <f t="shared" si="0"/>
-        <v>239.99999999999977</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>360.00000000000023</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>338.16307509065768</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>261.83692490934232</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>80.955951320560942</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
-        <v>68.234926290341718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f t="shared" si="6"/>
-        <v>0.34999999999999964</v>
-      </c>
-      <c r="C23">
+        <v>0.29999999999999966</v>
+      </c>
+      <c r="C24">
+        <f>B24*x_1</f>
+        <v>179.9999999999998</v>
+      </c>
+      <c r="D24">
+        <f>x_1-C24</f>
+        <v>420.00000000000023</v>
+      </c>
+      <c r="E24">
+        <f>(-(x_1+D24)+SQRT((x_1+D24)^2+4*(dd-1)*D24*x_1))/(2*(dd-1))</f>
+        <v>385.39479400065113</v>
+      </c>
+      <c r="F24">
+        <f>x_1-E24</f>
+        <v>214.60520599934887</v>
+      </c>
+      <c r="G24">
+        <f>Pn*(1-(F24/x_1)^2)</f>
+        <v>87.20683487721584</v>
+      </c>
+      <c r="H24">
+        <f>En*(2*(F24/x_1)-((F24/x_1)^2))</f>
+        <v>58.741903543665465</v>
+      </c>
+      <c r="I24">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C24,0)^5</f>
+        <v>1.422222222222214E-2</v>
+      </c>
+      <c r="J24">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F24,0)^5</f>
+        <v>3.4261486373780493E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25">
         <f t="shared" si="0"/>
-        <v>209.99999999999977</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>390.00000000000023</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>362.37038492967031</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>237.62961507032969</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>84.314490567090814</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
-        <v>63.524362257200714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f t="shared" si="6"/>
-        <v>0.29999999999999966</v>
-      </c>
-      <c r="C24">
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="C25">
+        <f>B25*x_1</f>
+        <v>149.9999999999998</v>
+      </c>
+      <c r="D25">
+        <f>x_1-C25</f>
+        <v>450.00000000000023</v>
+      </c>
+      <c r="E25">
+        <f>(-(x_1+D25)+SQRT((x_1+D25)^2+4*(dd-1)*D25*x_1))/(2*(dd-1))</f>
+        <v>407.05982435853349</v>
+      </c>
+      <c r="F25">
+        <f>x_1-E25</f>
+        <v>192.94017564146651</v>
+      </c>
+      <c r="G25">
+        <f>Pn*(1-(F25/x_1)^2)</f>
+        <v>89.659469062066677</v>
+      </c>
+      <c r="H25">
+        <f>En*(2*(F25/x_1)-((F25/x_1)^2))</f>
+        <v>53.972860942555513</v>
+      </c>
+      <c r="I25">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C25,0)^5</f>
+        <v>5.7155921353451841E-3</v>
+      </c>
+      <c r="J25">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F25,0)^5</f>
+        <v>2.0124184133939932E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26">
         <f t="shared" si="0"/>
-        <v>179.9999999999998</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>420.00000000000023</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>385.39479400065113</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>214.60520599934887</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>87.20683487721584</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
-        <v>58.741903543665465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f t="shared" si="6"/>
-        <v>0.24999999999999967</v>
-      </c>
-      <c r="C25">
+        <v>0.19999999999999968</v>
+      </c>
+      <c r="C26">
+        <f>B26*x_1</f>
+        <v>119.9999999999998</v>
+      </c>
+      <c r="D26">
+        <f>x_1-C26</f>
+        <v>480.00000000000023</v>
+      </c>
+      <c r="E26">
+        <f>(-(x_1+D26)+SQRT((x_1+D26)^2+4*(dd-1)*D26*x_1))/(2*(dd-1))</f>
+        <v>427.19570668422398</v>
+      </c>
+      <c r="F26">
+        <f>x_1-E26</f>
+        <v>172.80429331577602</v>
+      </c>
+      <c r="G26">
+        <f>Pn*(1-(F26/x_1)^2)</f>
+        <v>91.705187836565344</v>
+      </c>
+      <c r="H26">
+        <f>En*(2*(F26/x_1)-((F26/x_1)^2))</f>
+        <v>49.30661894182402</v>
+      </c>
+      <c r="I26">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C26,0)^5</f>
+        <v>1.8728852309099063E-3</v>
+      </c>
+      <c r="J26">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F26,0)^5</f>
+        <v>1.159785236850935E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27">
         <f t="shared" si="0"/>
-        <v>149.9999999999998</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>450.00000000000023</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>407.05982435853349</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="5"/>
-        <v>192.94017564146651</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>89.659469062066677</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
-        <v>53.972860942555513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f t="shared" si="6"/>
-        <v>0.19999999999999968</v>
-      </c>
-      <c r="C26">
+        <v>0.14999999999999969</v>
+      </c>
+      <c r="C27">
+        <f>B27*x_1</f>
+        <v>89.999999999999815</v>
+      </c>
+      <c r="D27">
+        <f>x_1-C27</f>
+        <v>510.00000000000017</v>
+      </c>
+      <c r="E27">
+        <f>(-(x_1+D27)+SQRT((x_1+D27)^2+4*(dd-1)*D27*x_1))/(2*(dd-1))</f>
+        <v>445.65845704117692</v>
+      </c>
+      <c r="F27">
+        <f>x_1-E27</f>
+        <v>154.34154295882308</v>
+      </c>
+      <c r="G27">
+        <f>Pn*(1-(F27/x_1)^2)</f>
+        <v>93.38296892141382</v>
+      </c>
+      <c r="H27">
+        <f>En*(2*(F27/x_1)-((F27/x_1)^2))</f>
+        <v>44.830149907688188</v>
+      </c>
+      <c r="I27">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C27,0)^5</f>
+        <v>4.4444444444443975E-4</v>
+      </c>
+      <c r="J27">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F27,0)^5</f>
+        <v>6.5920292034831853E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28">
         <f t="shared" si="0"/>
-        <v>119.9999999999998</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>480.00000000000023</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>427.19570668422398</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="5"/>
-        <v>172.80429331577602</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>91.705187836565344</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="4"/>
-        <v>49.30661894182402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f t="shared" si="6"/>
-        <v>0.14999999999999969</v>
-      </c>
-      <c r="C27">
+        <v>9.9999999999999686E-2</v>
+      </c>
+      <c r="C28">
+        <f>B28*x_1</f>
+        <v>59.999999999999815</v>
+      </c>
+      <c r="D28">
+        <f>x_1-C28</f>
+        <v>540.00000000000023</v>
+      </c>
+      <c r="E28">
+        <f>(-(x_1+D28)+SQRT((x_1+D28)^2+4*(dd-1)*D28*x_1))/(2*(dd-1))</f>
+        <v>462.35055967766311</v>
+      </c>
+      <c r="F28">
+        <f>x_1-E28</f>
+        <v>137.64944032233689</v>
+      </c>
+      <c r="G28">
+        <f>Pn*(1-(F28/x_1)^2)</f>
+        <v>94.736842105263179</v>
+      </c>
+      <c r="H28">
+        <f>En*(2*(F28/x_1)-((F28/x_1)^2))</f>
+        <v>40.619988879375462</v>
+      </c>
+      <c r="I28">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C28,0)^5</f>
+        <v>5.8527663465934153E-5</v>
+      </c>
+      <c r="J28">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F28,0)^5</f>
+        <v>3.7194368049215157E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29">
         <f t="shared" si="0"/>
-        <v>89.999999999999815</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>510.00000000000017</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>445.65845704117692</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="5"/>
-        <v>154.34154295882308</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>93.38296892141382</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="4"/>
-        <v>44.830149907688188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999686E-2</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>59.999999999999815</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>540.00000000000023</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>462.35055967766311</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="5"/>
-        <v>137.64944032233689</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>94.736842105263179</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="4"/>
-        <v>40.619988879375462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f t="shared" si="6"/>
         <v>4.9999999999999684E-2</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f>B29*x_1</f>
         <v>29.999999999999812</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f>x_1-C29</f>
         <v>570.00000000000023</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f>(-(x_1+D29)+SQRT((x_1+D29)^2+4*(dd-1)*D29*x_1))/(2*(dd-1))</f>
         <v>477.23740440959824</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f>x_1-E29</f>
         <v>122.76259559040176</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f>Pn*(1-(F29/x_1)^2)</f>
         <v>95.813706978863195</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f>En*(2*(F29/x_1)-((F29/x_1)^2))</f>
         <v>36.734572175663772</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C29,0)^5</f>
+        <v>1.8289894833104135E-6</v>
+      </c>
+      <c r="J29">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F29,0)^5</f>
+        <v>2.098626950635321E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2871,1291 +4798,1635 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f>B30*x_1</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f>x_1-C30</f>
         <v>600</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f>(-(x_1+D30)+SQRT((x_1+D30)^2+4*(dd-1)*D30*x_1))/(2*(dd-1))</f>
         <v>490.353601421066</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f>x_1-E30</f>
         <v>109.646398578934</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f>Pn*(1-(F30/x_1)^2)</f>
         <v>96.660463132963756</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f>En*(2*(F30/x_1)-((F30/x_1)^2))</f>
         <v>33.209262659275097</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C30,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F30,0)^5</f>
+        <v>1.192825163335211E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.05</v>
       </c>
       <c r="C31">
+        <f>B31*x_1</f>
+        <v>-30</v>
+      </c>
+      <c r="D31">
+        <f>x_1-C31</f>
+        <v>630</v>
+      </c>
+      <c r="E31">
+        <f>(-(x_1+D31)+SQRT((x_1+D31)^2+4*(dd-1)*D31*x_1))/(2*(dd-1))</f>
+        <v>501.79666646379656</v>
+      </c>
+      <c r="F31">
+        <f>x_1-E31</f>
+        <v>98.203333536203445</v>
+      </c>
+      <c r="G31">
+        <f>Pn*(1-(F31/x_1)^2)</f>
+        <v>97.321140356215892</v>
+      </c>
+      <c r="H31">
+        <f>En*(2*(F31/x_1)-((F31/x_1)^2))</f>
+        <v>30.055584868283702</v>
+      </c>
+      <c r="I31">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C31,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F31,0)^5</f>
+        <v>6.8744203758666362E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32">
         <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>501.79666646379656</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="5"/>
-        <v>98.203333536203445</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>97.321140356215892</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="4"/>
-        <v>30.055584868283702</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f t="shared" si="6"/>
         <v>-0.1</v>
       </c>
       <c r="C32">
+        <f>B32*x_1</f>
+        <v>-60</v>
+      </c>
+      <c r="D32">
+        <f>x_1-C32</f>
+        <v>660</v>
+      </c>
+      <c r="E32">
+        <f>(-(x_1+D32)+SQRT((x_1+D32)^2+4*(dd-1)*D32*x_1))/(2*(dd-1))</f>
+        <v>511.71058347433524</v>
+      </c>
+      <c r="F32">
+        <f>x_1-E32</f>
+        <v>88.289416525664763</v>
+      </c>
+      <c r="G32">
+        <f>Pn*(1-(F32/x_1)^2)</f>
+        <v>97.834716369321569</v>
+      </c>
+      <c r="H32">
+        <f>En*(2*(F32/x_1)-((F32/x_1)^2))</f>
+        <v>27.264521877876497</v>
+      </c>
+      <c r="I32">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C32,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F32,0)^5</f>
+        <v>4.0378312822971505E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
         <f t="shared" si="0"/>
-        <v>-60</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>660</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>511.71058347433524</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="5"/>
-        <v>88.289416525664763</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>97.834716369321569</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="4"/>
-        <v>27.264521877876497</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f t="shared" si="6"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="C33">
+        <f>B33*x_1</f>
+        <v>-90.000000000000014</v>
+      </c>
+      <c r="D33">
+        <f>x_1-C33</f>
+        <v>690</v>
+      </c>
+      <c r="E33">
+        <f>(-(x_1+D33)+SQRT((x_1+D33)^2+4*(dd-1)*D33*x_1))/(2*(dd-1))</f>
+        <v>520.26512177177551</v>
+      </c>
+      <c r="F33">
+        <f>x_1-E33</f>
+        <v>79.734878228224488</v>
+      </c>
+      <c r="G33">
+        <f>Pn*(1-(F33/x_1)^2)</f>
+        <v>98.233985887202834</v>
+      </c>
+      <c r="H33">
+        <f>En*(2*(F33/x_1)-((F33/x_1)^2))</f>
+        <v>24.812278629944331</v>
+      </c>
+      <c r="I33">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C33,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F33,0)^5</f>
+        <v>2.4257531902675911E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
         <f t="shared" si="0"/>
-        <v>-90.000000000000014</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>690</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
-        <v>520.26512177177551</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="5"/>
-        <v>79.734878228224488</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
-        <v>98.233985887202834</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="4"/>
-        <v>24.812278629944331</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f t="shared" si="6"/>
         <v>-0.2</v>
       </c>
       <c r="C34">
+        <f>B34*x_1</f>
+        <v>-120</v>
+      </c>
+      <c r="D34">
+        <f>x_1-C34</f>
+        <v>720</v>
+      </c>
+      <c r="E34">
+        <f>(-(x_1+D34)+SQRT((x_1+D34)^2+4*(dd-1)*D34*x_1))/(2*(dd-1))</f>
+        <v>527.6367593011837</v>
+      </c>
+      <c r="F34">
+        <f>x_1-E34</f>
+        <v>72.363240698816298</v>
+      </c>
+      <c r="G34">
+        <f>Pn*(1-(F34/x_1)^2)</f>
+        <v>98.545433720990331</v>
+      </c>
+      <c r="H34">
+        <f>En*(2*(F34/x_1)-((F34/x_1)^2))</f>
+        <v>22.666513953929094</v>
+      </c>
+      <c r="I34">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C34,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F34,0)^5</f>
+        <v>1.4934647432990152E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35">
         <f t="shared" si="0"/>
-        <v>-120</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="2"/>
-        <v>527.6367593011837</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="5"/>
-        <v>72.363240698816298</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
-        <v>98.545433720990331</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="4"/>
-        <v>22.666513953929094</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f t="shared" si="6"/>
         <v>-0.25</v>
       </c>
       <c r="C35">
+        <f>B35*x_1</f>
+        <v>-150</v>
+      </c>
+      <c r="D35">
+        <f>x_1-C35</f>
+        <v>750</v>
+      </c>
+      <c r="E35">
+        <f>(-(x_1+D35)+SQRT((x_1+D35)^2+4*(dd-1)*D35*x_1))/(2*(dd-1))</f>
+        <v>533.9946333552798</v>
+      </c>
+      <c r="F35">
+        <f>x_1-E35</f>
+        <v>66.005366644720198</v>
+      </c>
+      <c r="G35">
+        <f>Pn*(1-(F35/x_1)^2)</f>
+        <v>98.78980321502668</v>
+      </c>
+      <c r="H35">
+        <f>En*(2*(F35/x_1)-((F35/x_1)^2))</f>
+        <v>20.791592096600084</v>
+      </c>
+      <c r="I35">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C35,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F35,0)^5</f>
+        <v>9.429771599420866E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
         <f t="shared" si="0"/>
-        <v>-150</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>750</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
-        <v>533.9946333552798</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="5"/>
-        <v>66.005366644720198</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
-        <v>98.78980321502668</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="4"/>
-        <v>20.791592096600084</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <f t="shared" si="6"/>
         <v>-0.3</v>
       </c>
       <c r="C36">
+        <f>B36*x_1</f>
+        <v>-180</v>
+      </c>
+      <c r="D36">
+        <f>x_1-C36</f>
+        <v>780</v>
+      </c>
+      <c r="E36">
+        <f>(-(x_1+D36)+SQRT((x_1+D36)^2+4*(dd-1)*D36*x_1))/(2*(dd-1))</f>
+        <v>539.49221737580172</v>
+      </c>
+      <c r="F36">
+        <f>x_1-E36</f>
+        <v>60.507782624198285</v>
+      </c>
+      <c r="G36">
+        <f>Pn*(1-(F36/x_1)^2)</f>
+        <v>98.983002289417428</v>
+      </c>
+      <c r="H36">
+        <f>En*(2*(F36/x_1)-((F36/x_1)^2))</f>
+        <v>19.152263164150195</v>
+      </c>
+      <c r="I36">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C36,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F36,0)^5</f>
+        <v>6.104654994576098E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37">
         <f t="shared" si="0"/>
-        <v>-180</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>539.49221737580172</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="5"/>
-        <v>60.507782624198285</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="3"/>
-        <v>98.983002289417428</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="4"/>
-        <v>19.152263164150195</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <f t="shared" si="6"/>
         <v>-0.35</v>
       </c>
       <c r="C37">
+        <f>B37*x_1</f>
+        <v>-210</v>
+      </c>
+      <c r="D37">
+        <f>x_1-C37</f>
+        <v>810</v>
+      </c>
+      <c r="E37">
+        <f>(-(x_1+D37)+SQRT((x_1+D37)^2+4*(dd-1)*D37*x_1))/(2*(dd-1))</f>
+        <v>544.26372495565784</v>
+      </c>
+      <c r="F37">
+        <f>x_1-E37</f>
+        <v>55.736275044342165</v>
+      </c>
+      <c r="G37">
+        <f>Pn*(1-(F37/x_1)^2)</f>
+        <v>99.137074345605953</v>
+      </c>
+      <c r="H37">
+        <f>En*(2*(F37/x_1)-((F37/x_1)^2))</f>
+        <v>17.71583269372001</v>
+      </c>
+      <c r="I37">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C37,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F37,0)^5</f>
+        <v>4.0485046088342293E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38">
         <f t="shared" si="0"/>
-        <v>-210</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>544.26372495565784</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="5"/>
-        <v>55.736275044342165</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="3"/>
-        <v>99.137074345605953</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="4"/>
-        <v>17.71583269372001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <f t="shared" si="6"/>
         <v>-0.39999999999999997</v>
       </c>
       <c r="C38">
+        <f>B38*x_1</f>
+        <v>-239.99999999999997</v>
+      </c>
+      <c r="D38">
+        <f>x_1-C38</f>
+        <v>840</v>
+      </c>
+      <c r="E38">
+        <f>(-(x_1+D38)+SQRT((x_1+D38)^2+4*(dd-1)*D38*x_1))/(2*(dd-1))</f>
+        <v>548.4236974512379</v>
+      </c>
+      <c r="F38">
+        <f>x_1-E38</f>
+        <v>51.576302548762101</v>
+      </c>
+      <c r="G38">
+        <f>Pn*(1-(F38/x_1)^2)</f>
+        <v>99.261079170944043</v>
+      </c>
+      <c r="H38">
+        <f>En*(2*(F38/x_1)-((F38/x_1)^2))</f>
+        <v>16.453180020531409</v>
+      </c>
+      <c r="I38">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C38,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F38,0)^5</f>
+        <v>2.746982917408986E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
         <f t="shared" si="0"/>
-        <v>-239.99999999999997</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>840</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>548.4236974512379</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="5"/>
-        <v>51.576302548762101</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="3"/>
-        <v>99.261079170944043</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="4"/>
-        <v>16.453180020531409</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <f t="shared" si="6"/>
         <v>-0.44999999999999996</v>
       </c>
       <c r="C39">
+        <f>B39*x_1</f>
+        <v>-270</v>
+      </c>
+      <c r="D39">
+        <f>x_1-C39</f>
+        <v>870</v>
+      </c>
+      <c r="E39">
+        <f>(-(x_1+D39)+SQRT((x_1+D39)^2+4*(dd-1)*D39*x_1))/(2*(dd-1))</f>
+        <v>552.06838661655468</v>
+      </c>
+      <c r="F39">
+        <f>x_1-E39</f>
+        <v>47.931613383445324</v>
+      </c>
+      <c r="G39">
+        <f>Pn*(1-(F39/x_1)^2)</f>
+        <v>99.361822344016645</v>
+      </c>
+      <c r="H39">
+        <f>En*(2*(F39/x_1)-((F39/x_1)^2))</f>
+        <v>15.339026805165087</v>
+      </c>
+      <c r="I39">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C39,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F39,0)^5</f>
+        <v>1.9042114528418689E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
         <f t="shared" si="0"/>
-        <v>-270</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>870</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>552.06838661655468</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="5"/>
-        <v>47.931613383445324</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="3"/>
-        <v>99.361822344016645</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="4"/>
-        <v>15.339026805165087</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <f t="shared" si="6"/>
         <v>-0.49999999999999994</v>
       </c>
       <c r="C40">
+        <f>B40*x_1</f>
+        <v>-299.99999999999994</v>
+      </c>
+      <c r="D40">
+        <f>x_1-C40</f>
+        <v>900</v>
+      </c>
+      <c r="E40">
+        <f>(-(x_1+D40)+SQRT((x_1+D40)^2+4*(dd-1)*D40*x_1))/(2*(dd-1))</f>
+        <v>555.27794251276862</v>
+      </c>
+      <c r="F40">
+        <f>x_1-E40</f>
+        <v>44.722057487231382</v>
+      </c>
+      <c r="G40">
+        <f>Pn*(1-(F40/x_1)^2)</f>
+        <v>99.444427103919111</v>
+      </c>
+      <c r="H40">
+        <f>En*(2*(F40/x_1)-((F40/x_1)^2))</f>
+        <v>14.351779599662898</v>
+      </c>
+      <c r="I40">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C40,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F40,0)^5</f>
+        <v>1.3465231126720883E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
         <f t="shared" si="0"/>
-        <v>-299.99999999999994</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>555.27794251276862</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="5"/>
-        <v>44.722057487231382</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="3"/>
-        <v>99.444427103919111</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="4"/>
-        <v>14.351779599662898</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <f t="shared" si="6"/>
         <v>-0.54999999999999993</v>
       </c>
       <c r="C41">
+        <f>B41*x_1</f>
+        <v>-329.99999999999994</v>
+      </c>
+      <c r="D41">
+        <f>x_1-C41</f>
+        <v>930</v>
+      </c>
+      <c r="E41">
+        <f>(-(x_1+D41)+SQRT((x_1+D41)^2+4*(dd-1)*D41*x_1))/(2*(dd-1))</f>
+        <v>558.11880248686532</v>
+      </c>
+      <c r="F41">
+        <f>x_1-E41</f>
+        <v>41.88119751313468</v>
+      </c>
+      <c r="G41">
+        <f>Pn*(1-(F41/x_1)^2)</f>
+        <v>99.512768137462729</v>
+      </c>
+      <c r="H41">
+        <f>En*(2*(F41/x_1)-((F41/x_1)^2))</f>
+        <v>13.473167308507616</v>
+      </c>
+      <c r="I41">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C41,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F41,0)^5</f>
+        <v>9.6984066453836725E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
         <f t="shared" si="0"/>
-        <v>-329.99999999999994</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>930</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>558.11880248686532</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="5"/>
-        <v>41.88119751313468</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="3"/>
-        <v>99.512768137462729</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="4"/>
-        <v>13.473167308507616</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <f t="shared" si="6"/>
         <v>-0.6</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:C73" si="7">B42*$C$4</f>
+        <f>B42*x_1</f>
         <v>-360</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42:D73" si="8">$C$4-C42</f>
+        <f>x_1-C42</f>
         <v>960</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:E73" si="9">(-($C$4+D42)+SQRT(($C$4+D42)^2+4*($C$5-1)*D42*$C$4))/(2*($C$5-1))</f>
+        <f>(-(x_1+D42)+SQRT((x_1+D42)^2+4*(dd-1)*D42*x_1))/(2*(dd-1))</f>
         <v>560.64596048730573</v>
       </c>
       <c r="F42">
-        <f t="shared" si="5"/>
+        <f>x_1-E42</f>
         <v>39.354039512694271</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G73" si="10">Pn*(1-(F42/$C$4)^2)</f>
+        <f>Pn*(1-(F42/x_1)^2)</f>
         <v>99.569794326120359</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H72" si="11">En*(2*(F42/$C$4)-((F42/$C$4)^2))</f>
+        <f>En*(2*(F42/x_1)-((F42/x_1)^2))</f>
         <v>12.687807497018452</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C42,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F42,0)^5</f>
+        <v>7.1047945080661746E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.65</v>
       </c>
       <c r="C43">
-        <f t="shared" si="7"/>
+        <f>B43*x_1</f>
         <v>-390</v>
       </c>
       <c r="D43">
-        <f t="shared" si="8"/>
+        <f>x_1-C43</f>
         <v>990</v>
       </c>
       <c r="E43">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D43)+SQRT((x_1+D43)^2+4*(dd-1)*D43*x_1))/(2*(dd-1))</f>
         <v>562.90497516477683</v>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
+        <f>x_1-E43</f>
         <v>37.095024835223171</v>
       </c>
       <c r="G43">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F43/x_1)^2)</f>
         <v>99.617766425687265</v>
       </c>
       <c r="H43">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F43/x_1)-((F43/x_1)^2))</f>
         <v>11.982774704094995</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C43,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F43,0)^5</f>
+        <v>5.2866829459163685E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.70000000000000007</v>
       </c>
       <c r="C44">
-        <f t="shared" si="7"/>
+        <f>B44*x_1</f>
         <v>-420.00000000000006</v>
       </c>
       <c r="D44">
-        <f t="shared" si="8"/>
+        <f>x_1-C44</f>
         <v>1020</v>
       </c>
       <c r="E44">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D44)+SQRT((x_1+D44)^2+4*(dd-1)*D44*x_1))/(2*(dd-1))</f>
         <v>564.93367644807483</v>
       </c>
       <c r="F44">
-        <f t="shared" si="5"/>
+        <f>x_1-E44</f>
         <v>35.066323551925166</v>
       </c>
       <c r="G44">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F44/x_1)^2)</f>
         <v>99.658431375708801</v>
       </c>
       <c r="H44">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F44/x_1)-((F44/x_1)^2))</f>
         <v>11.347205893017193</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C44,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F44,0)^5</f>
+        <v>3.9907646168893028E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.75000000000000011</v>
       </c>
       <c r="C45">
-        <f t="shared" si="7"/>
+        <f>B45*x_1</f>
         <v>-450.00000000000006</v>
       </c>
       <c r="D45">
-        <f t="shared" si="8"/>
+        <f>x_1-C45</f>
         <v>1050</v>
       </c>
       <c r="E45">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D45)+SQRT((x_1+D45)^2+4*(dd-1)*D45*x_1))/(2*(dd-1))</f>
         <v>566.76358145458744</v>
       </c>
       <c r="F45">
-        <f t="shared" si="5"/>
+        <f>x_1-E45</f>
         <v>33.236418545412562</v>
       </c>
       <c r="G45">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F45/x_1)^2)</f>
         <v>99.693150133965048</v>
       </c>
       <c r="H45">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F45/x_1)-((F45/x_1)^2))</f>
         <v>10.771956315769231</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C45,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F45,0)^5</f>
+        <v>3.0526430996719957E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.80000000000000016</v>
       </c>
       <c r="C46">
-        <f t="shared" si="7"/>
+        <f>B46*x_1</f>
         <v>-480.00000000000011</v>
       </c>
       <c r="D46">
-        <f t="shared" si="8"/>
+        <f>x_1-C46</f>
         <v>1080</v>
       </c>
       <c r="E46">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D46)+SQRT((x_1+D46)^2+4*(dd-1)*D46*x_1))/(2*(dd-1))</f>
         <v>568.42105263157896</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
+        <f>x_1-E46</f>
         <v>31.578947368421041</v>
       </c>
       <c r="G46">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F46/x_1)^2)</f>
         <v>99.7229916897507</v>
       </c>
       <c r="H46">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F46/x_1)-((F46/x_1)^2))</f>
         <v>10.249307479224374</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C46,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F46,0)^5</f>
+        <v>2.3637044991308889E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.8500000000000002</v>
       </c>
       <c r="C47">
-        <f t="shared" si="7"/>
+        <f>B47*x_1</f>
         <v>-510.00000000000011</v>
       </c>
       <c r="D47">
-        <f t="shared" si="8"/>
+        <f>x_1-C47</f>
         <v>1110</v>
       </c>
       <c r="E47">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D47)+SQRT((x_1+D47)^2+4*(dd-1)*D47*x_1))/(2*(dd-1))</f>
         <v>569.92823746789145</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
+        <f>x_1-E47</f>
         <v>30.071762532108551</v>
       </c>
       <c r="G47">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F47/x_1)^2)</f>
         <v>99.748802527281242</v>
       </c>
       <c r="H47">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F47/x_1)-((F47/x_1)^2))</f>
         <v>9.7727233713174257</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C47,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F47,0)^5</f>
+        <v>1.8509698760612927E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.90000000000000024</v>
       </c>
       <c r="C48">
-        <f t="shared" si="7"/>
+        <f>B48*x_1</f>
         <v>-540.00000000000011</v>
       </c>
       <c r="D48">
-        <f t="shared" si="8"/>
+        <f>x_1-C48</f>
         <v>1140</v>
       </c>
       <c r="E48">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D48)+SQRT((x_1+D48)^2+4*(dd-1)*D48*x_1))/(2*(dd-1))</f>
         <v>571.30382795887226</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
+        <f>x_1-E48</f>
         <v>28.696172041127738</v>
       </c>
       <c r="G48">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F48/x_1)^2)</f>
         <v>99.77125825282944</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F48/x_1)-((F48/x_1)^2))</f>
         <v>9.3366489332053568</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C48,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F48,0)^5</f>
+        <v>1.4646193636478294E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.95000000000000029</v>
       </c>
       <c r="C49">
-        <f t="shared" si="7"/>
+        <f>B49*x_1</f>
         <v>-570.00000000000023</v>
       </c>
       <c r="D49">
-        <f t="shared" si="8"/>
+        <f>x_1-C49</f>
         <v>1170.0000000000002</v>
       </c>
       <c r="E49">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D49)+SQRT((x_1+D49)^2+4*(dd-1)*D49*x_1))/(2*(dd-1))</f>
         <v>572.56367365572407</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
+        <f>x_1-E49</f>
         <v>27.436326344275926</v>
       </c>
       <c r="G49">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F49/x_1)^2)</f>
         <v>99.790902221313999</v>
       </c>
       <c r="H49">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F49/x_1)-((F49/x_1)^2))</f>
         <v>8.93634433607264</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C49,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F49,0)^5</f>
+        <v>1.1701316720376885E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.0000000000000002</v>
       </c>
       <c r="C50">
-        <f t="shared" si="7"/>
+        <f>B50*x_1</f>
         <v>-600.00000000000011</v>
       </c>
       <c r="D50">
-        <f t="shared" si="8"/>
+        <f>x_1-C50</f>
         <v>1200</v>
       </c>
       <c r="E50">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D50)+SQRT((x_1+D50)^2+4*(dd-1)*D50*x_1))/(2*(dd-1))</f>
         <v>573.72127685686644</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
+        <f>x_1-E50</f>
         <v>26.278723143133561</v>
       </c>
       <c r="G50">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F50/x_1)^2)</f>
         <v>99.808174641657374</v>
       </c>
       <c r="H50">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F50/x_1)-((F50/x_1)^2))</f>
         <v>8.5677490227018911</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C50,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F50,0)^5</f>
+        <v>9.4324873627094096E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.0500000000000003</v>
       </c>
       <c r="C51">
-        <f t="shared" si="7"/>
+        <f>B51*x_1</f>
         <v>-630.00000000000011</v>
       </c>
       <c r="D51">
-        <f t="shared" si="8"/>
+        <f>x_1-C51</f>
         <v>1230</v>
       </c>
       <c r="E51">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D51)+SQRT((x_1+D51)^2+4*(dd-1)*D51*x_1))/(2*(dd-1))</f>
         <v>574.78819338161554</v>
       </c>
       <c r="F51">
-        <f t="shared" si="5"/>
+        <f>x_1-E51</f>
         <v>25.211806618384458</v>
       </c>
       <c r="G51">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F51/x_1)^2)</f>
         <v>99.823434668621431</v>
       </c>
       <c r="H51">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F51/x_1)-((F51/x_1)^2))</f>
         <v>8.2273702080829256</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C51,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F51,0)^5</f>
+        <v>7.6669877829003627E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.1000000000000003</v>
       </c>
       <c r="C52">
-        <f t="shared" si="7"/>
+        <f>B52*x_1</f>
         <v>-660.00000000000023</v>
       </c>
       <c r="D52">
-        <f t="shared" si="8"/>
+        <f>x_1-C52</f>
         <v>1260.0000000000002</v>
       </c>
       <c r="E52">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D52)+SQRT((x_1+D52)^2+4*(dd-1)*D52*x_1))/(2*(dd-1))</f>
         <v>575.77435784830402</v>
       </c>
       <c r="F52">
-        <f t="shared" si="5"/>
+        <f>x_1-E52</f>
         <v>24.225642151695979</v>
       </c>
       <c r="G52">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F52/x_1)^2)</f>
         <v>99.836977295093874</v>
       </c>
       <c r="H52">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F52/x_1)-((F52/x_1)^2))</f>
         <v>7.912191345659207</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C52,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F52,0)^5</f>
+        <v>6.2803149486769088E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.1500000000000004</v>
       </c>
       <c r="C53">
-        <f t="shared" si="7"/>
+        <f>B53*x_1</f>
         <v>-690.00000000000023</v>
       </c>
       <c r="D53">
-        <f t="shared" si="8"/>
+        <f>x_1-C53</f>
         <v>1290.0000000000002</v>
       </c>
       <c r="E53">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D53)+SQRT((x_1+D53)^2+4*(dd-1)*D53*x_1))/(2*(dd-1))</f>
         <v>576.68834858293496</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
+        <f>x_1-E53</f>
         <v>23.311651417065036</v>
       </c>
       <c r="G53">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F53/x_1)^2)</f>
         <v>99.849046363391452</v>
       </c>
       <c r="H53">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F53/x_1)-((F53/x_1)^2))</f>
         <v>7.6195968357464698</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C53,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F53,0)^5</f>
+        <v>5.1816746012121686E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.2000000000000004</v>
       </c>
       <c r="C54">
-        <f t="shared" si="7"/>
+        <f>B54*x_1</f>
         <v>-720.00000000000023</v>
       </c>
       <c r="D54">
-        <f t="shared" si="8"/>
+        <f>x_1-C54</f>
         <v>1320.0000000000002</v>
       </c>
       <c r="E54">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D54)+SQRT((x_1+D54)^2+4*(dd-1)*D54*x_1))/(2*(dd-1))</f>
         <v>577.53760418519721</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
+        <f>x_1-E54</f>
         <v>22.46239581480279</v>
       </c>
       <c r="G54">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F54/x_1)^2)</f>
         <v>99.859844659516426</v>
       </c>
       <c r="H54">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F54/x_1)-((F54/x_1)^2))</f>
         <v>7.3473099311173549</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C54,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F54,0)^5</f>
+        <v>4.3041293406988107E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.2500000000000004</v>
       </c>
       <c r="C55">
-        <f t="shared" si="7"/>
+        <f>B55*x_1</f>
         <v>-750.00000000000023</v>
       </c>
       <c r="D55">
-        <f t="shared" si="8"/>
+        <f>x_1-C55</f>
         <v>1350.0000000000002</v>
       </c>
       <c r="E55">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D55)+SQRT((x_1+D55)^2+4*(dd-1)*D55*x_1))/(2*(dd-1))</f>
         <v>578.3286012912281</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
+        <f>x_1-E55</f>
         <v>21.671398708771903</v>
       </c>
       <c r="G55">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F55/x_1)^2)</f>
         <v>99.869541799445955</v>
       </c>
       <c r="H55">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F55/x_1)-((F55/x_1)^2))</f>
         <v>7.0933413690365903</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C55,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F55,0)^5</f>
+        <v>3.5978217782154384E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.3000000000000005</v>
       </c>
       <c r="C56">
-        <f t="shared" si="7"/>
+        <f>B56*x_1</f>
         <v>-780.00000000000034</v>
       </c>
       <c r="D56">
-        <f t="shared" si="8"/>
+        <f>x_1-C56</f>
         <v>1380.0000000000005</v>
       </c>
       <c r="E56">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D56)+SQRT((x_1+D56)^2+4*(dd-1)*D56*x_1))/(2*(dd-1))</f>
         <v>579.06700109636279</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
+        <f>x_1-E56</f>
         <v>20.932998903637213</v>
       </c>
       <c r="G56">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F56/x_1)^2)</f>
         <v>99.878280432472309</v>
       </c>
       <c r="H56">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F56/x_1)-((F56/x_1)^2))</f>
         <v>6.855946733684716</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C56,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F56,0)^5</f>
+        <v>3.0252563987134936E-7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.3500000000000005</v>
       </c>
       <c r="C57">
-        <f t="shared" si="7"/>
+        <f>B57*x_1</f>
         <v>-810.00000000000034</v>
       </c>
       <c r="D57">
-        <f t="shared" si="8"/>
+        <f>x_1-C57</f>
         <v>1410.0000000000005</v>
       </c>
       <c r="E57">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D57)+SQRT((x_1+D57)^2+4*(dd-1)*D57*x_1))/(2*(dd-1))</f>
         <v>579.75777064020883</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
+        <f>x_1-E57</f>
         <v>20.242229359791168</v>
       </c>
       <c r="G57">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F57/x_1)^2)</f>
         <v>99.886181152929339</v>
       </c>
       <c r="H57">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F57/x_1)-((F57/x_1)^2))</f>
         <v>6.6335909395263917</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C57,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F57,0)^5</f>
+        <v>2.5579770392230149E-7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.4000000000000006</v>
       </c>
       <c r="C58">
-        <f t="shared" si="7"/>
+        <f>B58*x_1</f>
         <v>-840.00000000000034</v>
       </c>
       <c r="D58">
-        <f t="shared" si="8"/>
+        <f>x_1-C58</f>
         <v>1440.0000000000005</v>
       </c>
       <c r="E58">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D58)+SQRT((x_1+D58)^2+4*(dd-1)*D58*x_1))/(2*(dd-1))</f>
         <v>580.40528362694818</v>
       </c>
       <c r="F58">
-        <f t="shared" si="5"/>
+        <f>x_1-E58</f>
         <v>19.594716373051824</v>
       </c>
       <c r="G58">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F58/x_1)^2)</f>
         <v>99.893346413961012</v>
       </c>
       <c r="H58">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F58/x_1)-((F58/x_1)^2))</f>
         <v>6.4249185383116236</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C58,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F58,0)^5</f>
+        <v>2.1742017584487399E-7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.4500000000000006</v>
       </c>
       <c r="C59">
-        <f t="shared" si="7"/>
+        <f>B59*x_1</f>
         <v>-870.00000000000034</v>
       </c>
       <c r="D59">
-        <f t="shared" si="8"/>
+        <f>x_1-C59</f>
         <v>1470.0000000000005</v>
       </c>
       <c r="E59">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D59)+SQRT((x_1+D59)^2+4*(dd-1)*D59*x_1))/(2*(dd-1))</f>
         <v>581.01340458616994</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
+        <f>x_1-E59</f>
         <v>18.986595413830059</v>
       </c>
       <c r="G59">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F59/x_1)^2)</f>
         <v>99.899863665164318</v>
       </c>
       <c r="H59">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F59/x_1)-((F59/x_1)^2))</f>
         <v>6.228728803107666</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C59,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F59,0)^5</f>
+        <v>1.857121915989952E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.5000000000000007</v>
       </c>
       <c r="C60">
-        <f t="shared" si="7"/>
+        <f>B60*x_1</f>
         <v>-900.00000000000045</v>
       </c>
       <c r="D60">
-        <f t="shared" si="8"/>
+        <f>x_1-C60</f>
         <v>1500.0000000000005</v>
       </c>
       <c r="E60">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D60)+SQRT((x_1+D60)^2+4*(dd-1)*D60*x_1))/(2*(dd-1))</f>
         <v>581.58555941756856</v>
       </c>
       <c r="F60">
-        <f t="shared" si="5"/>
+        <f>x_1-E60</f>
         <v>18.414440582431439</v>
       </c>
       <c r="G60">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F60/x_1)^2)</f>
         <v>99.905807882787812</v>
       </c>
       <c r="H60">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F60/x_1)-((F60/x_1)^2))</f>
         <v>6.0439547435982854</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C60,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F60,0)^5</f>
+        <v>1.5936670148699265E-7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.5500000000000007</v>
       </c>
       <c r="C61">
-        <f t="shared" si="7"/>
+        <f>B61*x_1</f>
         <v>-930.00000000000045</v>
       </c>
       <c r="D61">
-        <f t="shared" si="8"/>
+        <f>x_1-C61</f>
         <v>1530.0000000000005</v>
       </c>
       <c r="E61">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D61)+SQRT((x_1+D61)^2+4*(dd-1)*D61*x_1))/(2*(dd-1))</f>
         <v>582.12479476181011</v>
       </c>
       <c r="F61">
-        <f t="shared" si="5"/>
+        <f>x_1-E61</f>
         <v>17.875205238189892</v>
       </c>
       <c r="G61">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F61/x_1)^2)</f>
         <v>99.911243621581264</v>
       </c>
       <c r="H61">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F61/x_1)-((F61/x_1)^2))</f>
         <v>5.8696453676445719</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C61,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F61,0)^5</f>
+        <v>1.3735994853974253E-7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.6000000000000008</v>
       </c>
       <c r="C62">
-        <f t="shared" si="7"/>
+        <f>B62*x_1</f>
         <v>-960.00000000000045</v>
       </c>
       <c r="D62">
-        <f t="shared" si="8"/>
+        <f>x_1-C62</f>
         <v>1560.0000000000005</v>
       </c>
       <c r="E62">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D62)+SQRT((x_1+D62)^2+4*(dd-1)*D62*x_1))/(2*(dd-1))</f>
         <v>582.63382816470812</v>
       </c>
       <c r="F62">
-        <f t="shared" si="5"/>
+        <f>x_1-E62</f>
         <v>17.36617183529188</v>
       </c>
       <c r="G62">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F62/x_1)^2)</f>
         <v>99.916226687718648</v>
       </c>
       <c r="H62">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F62/x_1)-((F62/x_1)^2))</f>
         <v>5.7049506328159358</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C62,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F62,0)^5</f>
+        <v>1.1888454626101683E-7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.6500000000000008</v>
       </c>
       <c r="C63">
-        <f t="shared" si="7"/>
+        <f>B63*x_1</f>
         <v>-990.00000000000045</v>
       </c>
       <c r="D63">
-        <f t="shared" si="8"/>
+        <f>x_1-C63</f>
         <v>1590.0000000000005</v>
       </c>
       <c r="E63">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D63)+SQRT((x_1+D63)^2+4*(dd-1)*D63*x_1))/(2*(dd-1))</f>
         <v>583.11509062511266</v>
       </c>
       <c r="F63">
-        <f t="shared" si="5"/>
+        <f>x_1-E63</f>
         <v>16.884909374887343</v>
       </c>
       <c r="G63">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F63/x_1)^2)</f>
         <v>99.920805509833841</v>
       </c>
       <c r="H63">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F63/x_1)-((F63/x_1)^2))</f>
         <v>5.5491086347962923</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C63,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F63,0)^5</f>
+        <v>1.0329959166667476E-7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.7000000000000008</v>
       </c>
       <c r="C64">
-        <f t="shared" si="7"/>
+        <f>B64*x_1</f>
         <v>-1020.0000000000005</v>
       </c>
       <c r="D64">
-        <f t="shared" si="8"/>
+        <f>x_1-C64</f>
         <v>1620.0000000000005</v>
       </c>
       <c r="E64">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D64)+SQRT((x_1+D64)^2+4*(dd-1)*D64*x_1))/(2*(dd-1))</f>
         <v>583.57076281730099</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
+        <f>x_1-E64</f>
         <v>16.429237182699012</v>
       </c>
       <c r="G64">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F64/x_1)^2)</f>
         <v>99.925022268220729</v>
       </c>
       <c r="H64">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F64/x_1)-((F64/x_1)^2))</f>
         <v>5.4014346624537319</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C64,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F64,0)^5</f>
+        <v>9.0093183178185438E-8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.7500000000000009</v>
       </c>
       <c r="C65">
-        <f t="shared" si="7"/>
+        <f>B65*x_1</f>
         <v>-1050.0000000000005</v>
       </c>
       <c r="D65">
-        <f t="shared" si="8"/>
+        <f>x_1-C65</f>
         <v>1650.0000000000005</v>
       </c>
       <c r="E65">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D65)+SQRT((x_1+D65)^2+4*(dd-1)*D65*x_1))/(2*(dd-1))</f>
         <v>584.00280603953013</v>
       </c>
       <c r="F65">
-        <f t="shared" si="5"/>
+        <f>x_1-E65</f>
         <v>15.997193960469872</v>
       </c>
       <c r="G65">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F65/x_1)^2)</f>
         <v>99.928913829275317</v>
       </c>
       <c r="H65">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F65/x_1)-((F65/x_1)^2))</f>
         <v>5.2613118160985977</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C65,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F65,0)^5</f>
+        <v>7.885404697217024E-8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.8000000000000009</v>
       </c>
       <c r="C66">
-        <f t="shared" si="7"/>
+        <f>B66*x_1</f>
         <v>-1080.0000000000005</v>
       </c>
       <c r="D66">
-        <f t="shared" si="8"/>
+        <f>x_1-C66</f>
         <v>1680.0000000000005</v>
       </c>
       <c r="E66">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D66)+SQRT((x_1+D66)^2+4*(dd-1)*D66*x_1))/(2*(dd-1))</f>
         <v>584.41298874890765</v>
       </c>
       <c r="F66">
-        <f t="shared" si="5"/>
+        <f>x_1-E66</f>
         <v>15.587011251092349</v>
       </c>
       <c r="G66">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F66/x_1)^2)</f>
         <v>99.932512522293976</v>
       </c>
       <c r="H66">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F66/x_1)-((F66/x_1)^2))</f>
         <v>5.1281829393247609</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C66,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F66,0)^5</f>
+        <v>6.9249904552055851E-8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.850000000000001</v>
       </c>
       <c r="C67">
-        <f t="shared" si="7"/>
+        <f>B67*x_1</f>
         <v>-1110.0000000000007</v>
       </c>
       <c r="D67">
-        <f t="shared" si="8"/>
+        <f>x_1-C67</f>
         <v>1710.0000000000007</v>
       </c>
       <c r="E67">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D67)+SQRT((x_1+D67)^2+4*(dd-1)*D67*x_1))/(2*(dd-1))</f>
         <v>584.80290938879716</v>
       </c>
       <c r="F67">
-        <f t="shared" si="5"/>
+        <f>x_1-E67</f>
         <v>15.197090611202839</v>
       </c>
       <c r="G67">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F67/x_1)^2)</f>
         <v>99.935846788043023</v>
       </c>
       <c r="H67">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F67/x_1)-((F67/x_1)^2))</f>
         <v>5.0015436584439712</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C67,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F67,0)^5</f>
+        <v>6.1010867373257665E-8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.900000000000001</v>
       </c>
       <c r="C68">
-        <f t="shared" si="7"/>
+        <f>B68*x_1</f>
         <v>-1140.0000000000007</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
+        <f>x_1-C68</f>
         <v>1740.0000000000007</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D68)+SQRT((x_1+D68)^2+4*(dd-1)*D68*x_1))/(2*(dd-1))</f>
         <v>585.17401609077717</v>
       </c>
       <c r="F68">
-        <f t="shared" si="5"/>
+        <f>x_1-E68</f>
         <v>14.825983909222828</v>
       </c>
       <c r="G68">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F68/x_1)^2)</f>
         <v>99.938941722534295</v>
       </c>
       <c r="H68">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F68/x_1)-((F68/x_1)^2))</f>
         <v>4.8809363589419057</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C68,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F68,0)^5</f>
+        <v>5.3916607359075335E-8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.9500000000000011</v>
       </c>
       <c r="C69">
-        <f t="shared" si="7"/>
+        <f>B69*x_1</f>
         <v>-1170.0000000000007</v>
       </c>
       <c r="D69">
-        <f t="shared" si="8"/>
+        <f>x_1-C69</f>
         <v>1770.0000000000007</v>
       </c>
       <c r="E69">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D69)+SQRT((x_1+D69)^2+4*(dd-1)*D69*x_1))/(2*(dd-1))</f>
         <v>585.52762373258872</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
+        <f>x_1-E69</f>
         <v>14.472376267411278</v>
       </c>
       <c r="G69">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F69/x_1)^2)</f>
         <v>99.941819534770687</v>
       </c>
       <c r="H69">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F69/x_1)-((F69/x_1)^2))</f>
         <v>4.7659449572411123</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C69,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F69,0)^5</f>
+        <v>4.778638313620552E-8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-2.0000000000000009</v>
       </c>
       <c r="C70">
-        <f t="shared" si="7"/>
+        <f>B70*x_1</f>
         <v>-1200.0000000000005</v>
       </c>
       <c r="D70">
-        <f t="shared" si="8"/>
+        <f>x_1-C70</f>
         <v>1800.0000000000005</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D70)+SQRT((x_1+D70)^2+4*(dd-1)*D70*x_1))/(2*(dd-1))</f>
         <v>585.86492875177225</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
+        <f>x_1-E70</f>
         <v>14.135071248227746</v>
       </c>
       <c r="G70">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F70/x_1)^2)</f>
         <v>99.944499933557651</v>
       </c>
       <c r="H70">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F70/x_1)-((F70/x_1)^2))</f>
         <v>4.6561903496335608</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C70,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F70,0)^5</f>
+        <v>4.2471240320681149E-8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-2.0500000000000007</v>
       </c>
       <c r="C71">
-        <f t="shared" si="7"/>
+        <f>B71*x_1</f>
         <v>-1230.0000000000005</v>
       </c>
       <c r="D71">
-        <f t="shared" si="8"/>
+        <f>x_1-C71</f>
         <v>1830.0000000000005</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D71)+SQRT((x_1+D71)^2+4*(dd-1)*D71*x_1))/(2*(dd-1))</f>
         <v>586.18702204799047</v>
       </c>
       <c r="F71">
-        <f t="shared" si="5"/>
+        <f>x_1-E71</f>
         <v>13.812977952009533</v>
       </c>
       <c r="G71">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F71/x_1)^2)</f>
         <v>99.947000455582582</v>
       </c>
       <c r="H71">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F71/x_1)-((F71/x_1)^2))</f>
         <v>4.5513264395857611</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C71,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F71,0)^5</f>
+        <v>3.784787735248296E-8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-2.1000000000000005</v>
       </c>
       <c r="C72">
-        <f t="shared" si="7"/>
+        <f>B72*x_1</f>
         <v>-1260.0000000000002</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
+        <f>x_1-C72</f>
         <v>1860.0000000000002</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
+        <f>(-(x_1+D72)+SQRT((x_1+D72)^2+4*(dd-1)*D72*x_1))/(2*(dd-1))</f>
         <v>586.49490025244847</v>
       </c>
       <c r="F72">
-        <f t="shared" si="5"/>
+        <f>x_1-E72</f>
         <v>13.505099747551526</v>
       </c>
       <c r="G72">
-        <f t="shared" si="10"/>
+        <f>Pn*(1-(F72/x_1)^2)</f>
         <v>99.949336744669083</v>
       </c>
       <c r="H72">
-        <f t="shared" si="11"/>
+        <f>En*(2*(F72/x_1)-((F72/x_1)^2))</f>
         <v>4.4510366605195877</v>
+      </c>
+      <c r="I72">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C72,0)^5</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F72,0)^5</f>
+        <v>3.3813795024489408E-8</v>
       </c>
     </row>
   </sheetData>

--- a/GR4Jdd_conceptualisation.xlsx
+++ b/GR4Jdd_conceptualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/l_trotter_unimelb_edu_au/Documents/Documents/Conferences/11_MARRMoT_tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{7E9C6C4A-B860-429F-B129-0CA7A162A89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D23D48-59D0-492B-B342-2DB8BCF287BE}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{7E9C6C4A-B860-429F-B129-0CA7A162A89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B498560F-D655-493E-9CCE-9C1E55B94BD9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A22101B4-BB84-4338-BDA8-43D7E5888881}"/>
+    <workbookView minimized="1" xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7400" xr2:uid="{A22101B4-BB84-4338-BDA8-43D7E5888881}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,190 +401,190 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7251324145114282</c:v>
+                  <c:v>9.7005261289385576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.901125410994801</c:v>
+                  <c:v>18.804437530215921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.529047978744892</c:v>
+                  <c:v>27.315821270308071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.610261075541715</c:v>
+                  <c:v>35.239698613931246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.146511640930662</c:v>
+                  <c:v>42.5822489881024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.140060430706953</c:v>
+                  <c:v>49.351081247201719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.593856326343492</c:v>
+                  <c:v>55.555555555555578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.511774014651579</c:v>
+                  <c:v>61.20715419523961</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.898936734726504</c:v>
+                  <c:v>66.319890752137596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.762150065153236</c:v>
+                  <c:v>70.910733458334533</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>77.110473793283603</c:v>
+                  <c:v>75.000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80.955951320560942</c:v>
+                  <c:v>78.611660098349702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.314490567090814</c:v>
+                  <c:v>81.773464408864399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.20683487721584</c:v>
+                  <c:v>84.516813252902352</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>89.659469062066677</c:v>
+                  <c:v>86.876297132902465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>91.705187836565344</c:v>
+                  <c:v>88.8888888888889</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.38296892141382</c:v>
+                  <c:v>90.592838669566717</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>94.736842105263179</c:v>
+                  <c:v>92.026396623640892</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95.813706978863195</c:v>
+                  <c:v>93.226535591135644</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>96.660463132963756</c:v>
+                  <c:v>94.227846074489833</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.321140356215892</c:v>
+                  <c:v>95.061728395061735</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97.834716369321569</c:v>
+                  <c:v>95.755933208332166</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.233985887202834</c:v>
+                  <c:v>96.334430235516763</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>98.545433720990331</c:v>
+                  <c:v>96.817537162785129</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>98.78980321502668</c:v>
+                  <c:v>97.222222222222214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>98.983002289417428</c:v>
+                  <c:v>97.562498999711906</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>99.137074345605953</c:v>
+                  <c:v>97.849849777329752</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>99.261079170944043</c:v>
+                  <c:v>98.093634719402118</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>99.361822344016645</c:v>
+                  <c:v>98.301462680309214</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>99.444427103919111</c:v>
+                  <c:v>98.479513087068028</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>99.512768137462729</c:v>
+                  <c:v>98.63280720439478</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>99.569794326120359</c:v>
+                  <c:v>98.765432098765444</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>99.617766425687265</c:v>
+                  <c:v>98.88072296198176</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>99.658431375708801</c:v>
+                  <c:v>98.981410146622039</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>99.693150133965048</c:v>
+                  <c:v>99.069737041765492</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>99.7229916897507</c:v>
+                  <c:v>99.147554257349384</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>99.748802527281242</c:v>
+                  <c:v>99.216394775124783</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99.77125825282944</c:v>
+                  <c:v>99.277533918245879</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99.790902221313999</c:v>
+                  <c:v>99.332037263788735</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>99.808174641657374</c:v>
+                  <c:v>99.380798999990645</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>99.823434668621431</c:v>
+                  <c:v>99.424572714984933</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>99.836977295093874</c:v>
+                  <c:v>99.46399618678555</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>99.849046363391452</c:v>
+                  <c:v>99.499611411340197</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>99.859844659516426</c:v>
+                  <c:v>99.531880842092249</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>99.869541799445955</c:v>
+                  <c:v>99.561200607339899</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>99.878280432472309</c:v>
+                  <c:v>99.587911309291783</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>99.886181152929339</c:v>
+                  <c:v>99.612306881615581</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>99.893346413961012</c:v>
+                  <c:v>99.63464188281543</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>99.899863665164318</c:v>
+                  <c:v>99.655137524883159</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>99.905807882787812</c:v>
+                  <c:v>99.673986675579684</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>99.911243621581264</c:v>
+                  <c:v>99.691358024691354</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>99.916226687718648</c:v>
+                  <c:v>99.707399566780836</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>99.920805509833841</c:v>
+                  <c:v>99.722241523067538</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>99.925022268220729</c:v>
+                  <c:v>99.735998801391503</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>99.928913829275317</c:v>
+                  <c:v>99.748773074389945</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>99.932512522293976</c:v>
+                  <c:v>99.76065454100123</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>99.935846788043023</c:v>
+                  <c:v>99.771723424397209</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>99.938941722534295</c:v>
+                  <c:v>99.782051249797931</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>99.941819534770687</c:v>
+                  <c:v>99.791701937851158</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>99.944499933557651</c:v>
+                  <c:v>99.800732742975754</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>99.947000455582582</c:v>
+                  <c:v>99.809195060972726</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>99.949336744669083</c:v>
+                  <c:v>99.817135126059753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,190 +830,190 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.751307017368248</c:v>
+                  <c:v>99.752596752819372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.010952559882142</c:v>
+                  <c:v>99.021598166803557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.788793099257873</c:v>
+                  <c:v>97.825854675608809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.096695299071371</c:v>
+                  <c:v>96.187269438804208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.9490160751334</c:v>
+                  <c:v>94.131252299767368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.363202400134952</c:v>
+                  <c:v>91.687188757275607</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.360534471702394</c:v>
+                  <c:v>88.888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.967032758975705</c:v>
+                  <c:v>85.77496031666152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.214537188103606</c:v>
+                  <c:v>82.389024026858664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.141937255675444</c:v>
+                  <c:v>78.779666041660775</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.796473201172731</c:v>
+                  <c:v>74.999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.234926290341718</c:v>
+                  <c:v>71.106719213202524</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.524362257200714</c:v>
+                  <c:v>67.158558169158667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58.741903543665465</c:v>
+                  <c:v>63.214174700660294</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.972860942555513</c:v>
+                  <c:v>59.329600348415127</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.30661894182402</c:v>
+                  <c:v>55.555555555555515</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.830149907688188</c:v>
+                  <c:v>51.935030773968329</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.619988879375462</c:v>
+                  <c:v>48.501535849176619</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.734572175663772</c:v>
+                  <c:v>45.278296018096626</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.209262659275097</c:v>
+                  <c:v>42.278460744898247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.055584868283702</c:v>
+                  <c:v>39.506172839506185</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.264521877876497</c:v>
+                  <c:v>36.958199124991822</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.812278629944331</c:v>
+                  <c:v>34.62578573246013</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.666513953929094</c:v>
+                  <c:v>32.496454395318231</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.791592096600084</c:v>
+                  <c:v>30.555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.152263164150195</c:v>
+                  <c:v>28.787495398674722</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.71583269372001</c:v>
+                  <c:v>27.176630866772548</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.453180020531409</c:v>
+                  <c:v>25.707872210941783</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.339026805165087</c:v>
+                  <c:v>24.367051641165517</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.351779599662898</c:v>
+                  <c:v>23.141118168100117</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.473167308507616</c:v>
+                  <c:v>22.018211161608924</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.687807497018452</c:v>
+                  <c:v>20.987654320987641</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.982774704094995</c:v>
+                  <c:v>20.03990099911961</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.347205893017193</c:v>
+                  <c:v>19.16645266208835</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.771956315769231</c:v>
+                  <c:v>18.359765120900107</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.249307479224374</c:v>
+                  <c:v>17.613151920578314</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.7727233713174257</c:v>
+                  <c:v>16.920690580100626</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.3366489332053568</c:v>
+                  <c:v>16.277134875375555</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.93634433607264</c:v>
+                  <c:v>15.677834720153715</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.5677490227018911</c:v>
+                  <c:v>15.118664166643297</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.2273702080829256</c:v>
+                  <c:v>14.595957424563252</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.912191345659207</c:v>
+                  <c:v>14.1064524454117</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.6195968357464698</c:v>
+                  <c:v>13.647241441275279</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.3473099311173549</c:v>
+                  <c:v>13.215727639067989</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.0933413690365903</c:v>
+                  <c:v>12.809587568175631</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.855946733684716</c:v>
+                  <c:v>12.426738213775243</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.6335909395263917</c:v>
+                  <c:v>12.065308421556264</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.4249185383116236</c:v>
+                  <c:v>11.723614000982794</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.228728803107666</c:v>
+                  <c:v>11.400136036876923</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0439547435982854</c:v>
+                  <c:v>11.093501979134619</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.8696453676445719</c:v>
+                  <c:v>10.802469135802481</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.7049506328159358</c:v>
+                  <c:v>10.525910244672817</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.5491086347962923</c:v>
+                  <c:v>10.262800842808915</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.4014346624537319</c:v>
+                  <c:v>10.012208192183442</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.2613118160985977</c:v>
+                  <c:v>9.7732815533139874</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.1281829393247609</c:v>
+                  <c:v>9.5452436279023409</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.0015436584439712</c:v>
+                  <c:v>9.327383016550856</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.8809363589419057</c:v>
+                  <c:v>9.1190475591485693</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.7659449572411123</c:v>
+                  <c:v>8.9196384439591245</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.6561903496335608</c:v>
+                  <c:v>8.7286049872286018</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.5513264395857611</c:v>
+                  <c:v>8.5454399986397558</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.4510366605195877</c:v>
+                  <c:v>8.3696756594977764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,190 +1981,190 @@
                   <c:v>5.8527663465935058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5318793236232793</c:v>
+                  <c:v>4.5349680989702739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4665562802820058</c:v>
+                  <c:v>3.4768977844947906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6168034450582778</c:v>
+                  <c:v>2.6360940793875405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9471654148615591</c:v>
+                  <c:v>1.9753012551776989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.426441543610661</c:v>
+                  <c:v>1.4620984974130316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0274023531873664</c:v>
+                  <c:v>1.0685297860088121</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72650598362690644</c:v>
+                  <c:v>0.77073466292589277</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50361471336900943</c:v>
+                  <c:v>0.54858040031006428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3417116066909584</c:v>
+                  <c:v>0.3852963682896442</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22661739538264283</c:v>
+                  <c:v>0.26711182479333123</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1467077966835855</c:v>
+                  <c:v>0.18289894833104639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.2631648707324793E-2</c:v>
+                  <c:v>0.12382372926292322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7030575910646281E-2</c:v>
+                  <c:v>8.3008297494138114E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4261486373780493E-2</c:v>
+                  <c:v>5.520927785367602E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0124184133939932E-2</c:v>
+                  <c:v>3.6517594271896728E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.159785236850935E-2</c:v>
+                  <c:v>2.4085458216434048E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5920292034831853E-3</c:v>
+                  <c:v>1.5885747926774954E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7194368049215157E-3</c:v>
+                  <c:v>1.0507460340870352E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.098626950635321E-3</c:v>
+                  <c:v>6.9885699985180304E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.192825163335211E-3</c:v>
+                  <c:v>4.684960636775923E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.8744203758666362E-4</c:v>
+                  <c:v>3.1717475840571806E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0378312822971505E-4</c:v>
+                  <c:v>2.1717844125561814E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4257531902675911E-4</c:v>
+                  <c:v>1.5056183894770112E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4934647432990152E-4</c:v>
+                  <c:v>1.0574736121956069E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.429771599420866E-5</c:v>
+                  <c:v>7.5267056926356813E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.104654994576098E-5</c:v>
+                  <c:v>5.4290418956164837E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0485046088342293E-5</c:v>
+                  <c:v>3.967648544349183E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.746982917408986E-5</c:v>
+                  <c:v>2.9368143009832171E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9042114528418689E-5</c:v>
+                  <c:v>2.2006395827510759E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3465231126720883E-5</c:v>
+                  <c:v>1.6684680811802739E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.6984066453836725E-6</c:v>
+                  <c:v>1.2791915727639145E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.1047945080661746E-6</c:v>
+                  <c:v>9.9117112001786487E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.2866829459163685E-6</c:v>
+                  <c:v>7.757203278736574E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9907646168893028E-6</c:v>
+                  <c:v>6.1285756422501926E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0526430996719957E-6</c:v>
+                  <c:v>4.8851230483853673E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.3637044991308889E-6</c:v>
+                  <c:v>3.9267029790353549E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8509698760612927E-6</c:v>
+                  <c:v>3.1812990394683738E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.4646193636478294E-6</c:v>
+                  <c:v>2.5965987481027432E-5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1701316720376885E-6</c:v>
+                  <c:v>2.1342327223169124E-5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.4324873627094096E-7</c:v>
+                  <c:v>1.7657951078247205E-5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.6669877829003627E-7</c:v>
+                  <c:v>1.4700676274355968E-5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.2803149486769088E-7</c:v>
+                  <c:v>1.231064718697589E-5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.1816746012121686E-7</c:v>
+                  <c:v>1.0366440976343374E-5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.3041293406988107E-7</c:v>
+                  <c:v>8.7751030320674882E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.5978217782154384E-7</c:v>
+                  <c:v>7.4649384479466259E-6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.0252563987134936E-7</c:v>
+                  <c:v>6.380253384450575E-6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.5579770392230149E-7</c:v>
+                  <c:v>5.4774877795120139E-6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.1742017584487399E-7</c:v>
+                  <c:v>4.7223490866381742E-6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.857121915989952E-7</c:v>
+                  <c:v>4.0876719864980559E-6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5936670148699265E-7</c:v>
+                  <c:v>3.5518086663929321E-6</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3735994853974253E-7</c:v>
+                  <c:v>3.0974097500558536E-6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1888454626101683E-7</c:v>
+                  <c:v>2.710494925883927E-6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0329959166667476E-7</c:v>
+                  <c:v>2.3797398974534532E-6</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.0093183178185438E-8</c:v>
+                  <c:v>2.0959259425232631E-6</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.885404697217024E-8</c:v>
+                  <c:v>1.8515124890908297E-6</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.9249904552055851E-8</c:v>
+                  <c:v>1.6403033321509635E-6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.1010867373257665E-8</c:v>
+                  <c:v>1.4571845542684896E-6</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.3916607359075335E-8</c:v>
+                  <c:v>1.297917666998564E-6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.778638313620552E-8</c:v>
+                  <c:v>1.1589755141074349E-6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.2471240320681149E-8</c:v>
+                  <c:v>1.0374114647911774E-6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.784787735248296E-8</c:v>
+                  <c:v>9.3075465600930973E-7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.3813795024489408E-8</c:v>
+                  <c:v>8.3692571877265869E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3944,16 +3944,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378343AF-3F86-4D3A-B59A-ADCB34249CD8}">
   <dimension ref="A2:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3977,29 +3977,29 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -4036,761 +4036,761 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <f>B10*x_1</f>
+        <f t="shared" ref="C10:C41" si="0">B10*x_1</f>
         <v>600</v>
       </c>
       <c r="D10">
-        <f>x_1-C10</f>
+        <f t="shared" ref="D10:D41" si="1">x_1-C10</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>(-(x_1+D10)+SQRT((x_1+D10)^2+4*(dd-1)*D10*x_1))/(2*(dd-1))</f>
+        <f t="shared" ref="E10:E41" si="2">(-(x_1+D10)+SQRT((x_1+D10)^2+4*(dd-1)*D10*x_1))/(2*(dd-1))</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>x_1-E10</f>
+        <f t="shared" ref="F10:F41" si="3">x_1-E10</f>
         <v>600</v>
       </c>
       <c r="G10">
-        <f>Pn*(1-(F10/x_1)^2)</f>
+        <f t="shared" ref="G10:G41" si="4">Pn*(1-(F10/x_1)^2)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>En*(2*(F10/x_1)-((F10/x_1)^2))</f>
+        <f t="shared" ref="H10:H41" si="5">En*(2*(F10/x_1)-((F10/x_1)^2))</f>
         <v>100</v>
       </c>
       <c r="I10">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C10,0)^5</f>
+        <f t="shared" ref="I10:I41" si="6">x_1^(-4)/4 * (4/9)^4 *MAX(C10,0)^5</f>
         <v>5.8527663465935058</v>
       </c>
       <c r="J10">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F10,0)^5</f>
+        <f t="shared" ref="J10:J41" si="7">x_1^(-4)/4 * (4/9)^4 *MAX(F10,0)^5</f>
         <v>5.8527663465935058</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11">
         <f>B10-0.05</f>
         <v>0.95</v>
       </c>
       <c r="C11">
-        <f>B11*x_1</f>
+        <f t="shared" si="0"/>
         <v>570</v>
       </c>
       <c r="D11">
-        <f>x_1-C11</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E11">
-        <f>(-(x_1+D11)+SQRT((x_1+D11)^2+4*(dd-1)*D11*x_1))/(2*(dd-1))</f>
-        <v>29.921476191429498</v>
+        <f t="shared" si="2"/>
+        <v>29.843788128357573</v>
       </c>
       <c r="F11">
         <f>x_1-E11</f>
-        <v>570.07852380857048</v>
+        <v>570.15621187164243</v>
       </c>
       <c r="G11">
-        <f>Pn*(1-(F11/x_1)^2)</f>
-        <v>9.7251324145114282</v>
+        <f t="shared" si="4"/>
+        <v>9.7005261289385576</v>
       </c>
       <c r="H11">
-        <f>En*(2*(F11/x_1)-((F11/x_1)^2))</f>
-        <v>99.751307017368248</v>
+        <f t="shared" si="5"/>
+        <v>99.752596752819372</v>
       </c>
       <c r="I11">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C11,0)^5</f>
+        <f t="shared" si="6"/>
         <v>4.5287590306355732</v>
       </c>
       <c r="J11">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F11,0)^5</f>
-        <v>4.5318793236232793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>4.5349680989702739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12">
-        <f t="shared" ref="B12:B72" si="0">B11-0.05</f>
+        <f t="shared" ref="B12:B72" si="8">B11-0.05</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="C12">
-        <f>B12*x_1</f>
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
       <c r="D12">
-        <f>x_1-C12</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E12">
-        <f>(-(x_1+D12)+SQRT((x_1+D12)^2+4*(dd-1)*D12*x_1))/(2*(dd-1))</f>
-        <v>59.670518553337956</v>
+        <f t="shared" si="2"/>
+        <v>59.348518090237121</v>
       </c>
       <c r="F12">
-        <f>x_1-E12</f>
-        <v>540.32948144666204</v>
+        <f t="shared" si="3"/>
+        <v>540.65148190976288</v>
       </c>
       <c r="G12">
-        <f>Pn*(1-(F12/x_1)^2)</f>
-        <v>18.901125410994801</v>
+        <f t="shared" si="4"/>
+        <v>18.804437530215921</v>
       </c>
       <c r="H12">
-        <f>En*(2*(F12/x_1)-((F12/x_1)^2))</f>
-        <v>99.010952559882142</v>
+        <f t="shared" si="5"/>
+        <v>99.021598166803557</v>
       </c>
       <c r="I12">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C12,0)^5</f>
+        <f t="shared" si="6"/>
         <v>3.4559999999999995</v>
       </c>
       <c r="J12">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F12,0)^5</f>
-        <v>3.4665562802820058</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3.4768977844947906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13">
+        <f t="shared" si="8"/>
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.84999999999999987</v>
-      </c>
-      <c r="C13">
-        <f>B13*x_1</f>
         <v>509.99999999999994</v>
       </c>
       <c r="D13">
-        <f>x_1-C13</f>
+        <f t="shared" si="1"/>
         <v>90.000000000000057</v>
       </c>
       <c r="E13">
-        <f>(-(x_1+D13)+SQRT((x_1+D13)^2+4*(dd-1)*D13*x_1))/(2*(dd-1))</f>
-        <v>89.220764638461048</v>
+        <f t="shared" si="2"/>
+        <v>88.469899784097819</v>
       </c>
       <c r="F13">
-        <f>x_1-E13</f>
-        <v>510.77923536153895</v>
+        <f t="shared" si="3"/>
+        <v>511.53010021590217</v>
       </c>
       <c r="G13">
-        <f>Pn*(1-(F13/x_1)^2)</f>
-        <v>27.529047978744892</v>
+        <f t="shared" si="4"/>
+        <v>27.315821270308071</v>
       </c>
       <c r="H13">
-        <f>En*(2*(F13/x_1)-((F13/x_1)^2))</f>
-        <v>97.788793099257873</v>
+        <f t="shared" si="5"/>
+        <v>97.825854675608809</v>
       </c>
       <c r="I13">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C13,0)^5</f>
+        <f t="shared" si="6"/>
         <v>2.5969035208047533</v>
       </c>
       <c r="J13">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F13,0)^5</f>
-        <v>2.6168034450582778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2.6360940793875405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14">
+        <f t="shared" si="8"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="C14">
-        <f>B14*x_1</f>
         <v>479.99999999999989</v>
       </c>
       <c r="D14">
-        <f>x_1-C14</f>
+        <f t="shared" si="1"/>
         <v>120.00000000000011</v>
       </c>
       <c r="E14">
-        <f>(-(x_1+D14)+SQRT((x_1+D14)^2+4*(dd-1)*D14*x_1))/(2*(dd-1))</f>
-        <v>118.540697329411</v>
+        <f t="shared" si="2"/>
+        <v>117.15728752538107</v>
       </c>
       <c r="F14">
-        <f>x_1-E14</f>
-        <v>481.45930267058901</v>
+        <f t="shared" si="3"/>
+        <v>482.84271247461891</v>
       </c>
       <c r="G14">
-        <f>Pn*(1-(F14/x_1)^2)</f>
-        <v>35.610261075541715</v>
+        <f t="shared" si="4"/>
+        <v>35.239698613931246</v>
       </c>
       <c r="H14">
-        <f>En*(2*(F14/x_1)-((F14/x_1)^2))</f>
-        <v>96.096695299071371</v>
+        <f t="shared" si="5"/>
+        <v>96.187269438804208</v>
       </c>
       <c r="I14">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C14,0)^5</f>
+        <f t="shared" si="6"/>
         <v>1.9178344764517576</v>
       </c>
       <c r="J14">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F14,0)^5</f>
-        <v>1.9471654148615591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.9753012551776989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15">
+        <f t="shared" si="8"/>
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.74999999999999978</v>
-      </c>
-      <c r="C15">
-        <f>B15*x_1</f>
         <v>449.99999999999989</v>
       </c>
       <c r="D15">
-        <f>x_1-C15</f>
+        <f t="shared" si="1"/>
         <v>150.00000000000011</v>
       </c>
       <c r="E15">
-        <f>(-(x_1+D15)+SQRT((x_1+D15)^2+4*(dd-1)*D15*x_1))/(2*(dd-1))</f>
-        <v>147.59248669739182</v>
+        <f t="shared" si="2"/>
+        <v>145.35299006500506</v>
       </c>
       <c r="F15">
-        <f>x_1-E15</f>
-        <v>452.40751330260821</v>
+        <f t="shared" si="3"/>
+        <v>454.64700993499491</v>
       </c>
       <c r="G15">
-        <f>Pn*(1-(F15/x_1)^2)</f>
-        <v>43.146511640930662</v>
+        <f t="shared" si="4"/>
+        <v>42.5822489881024</v>
       </c>
       <c r="H15">
-        <f>En*(2*(F15/x_1)-((F15/x_1)^2))</f>
-        <v>93.9490160751334</v>
+        <f t="shared" si="5"/>
+        <v>94.131252299767368</v>
       </c>
       <c r="I15">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C15,0)^5</f>
+        <f t="shared" si="6"/>
         <v>1.3888888888888868</v>
       </c>
       <c r="J15">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F15,0)^5</f>
-        <v>1.426441543610661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.4620984974130316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16">
+        <f t="shared" si="8"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.69999999999999973</v>
-      </c>
-      <c r="C16">
-        <f>B16*x_1</f>
         <v>419.99999999999983</v>
       </c>
       <c r="D16">
-        <f>x_1-C16</f>
+        <f t="shared" si="1"/>
         <v>180.00000000000017</v>
       </c>
       <c r="E16">
-        <f>(-(x_1+D16)+SQRT((x_1+D16)^2+4*(dd-1)*D16*x_1))/(2*(dd-1))</f>
-        <v>176.33057409171604</v>
+        <f t="shared" si="2"/>
+        <v>172.99167746977835</v>
       </c>
       <c r="F16">
-        <f>x_1-E16</f>
-        <v>423.66942590828398</v>
+        <f t="shared" si="3"/>
+        <v>427.00832253022168</v>
       </c>
       <c r="G16">
-        <f>Pn*(1-(F16/x_1)^2)</f>
-        <v>50.140060430706953</v>
+        <f t="shared" si="4"/>
+        <v>49.351081247201719</v>
       </c>
       <c r="H16">
-        <f>En*(2*(F16/x_1)-((F16/x_1)^2))</f>
-        <v>91.363202400134952</v>
+        <f t="shared" si="5"/>
+        <v>91.687188757275607</v>
       </c>
       <c r="I16">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C16,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0.98367443987196868</v>
       </c>
       <c r="J16">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F16,0)^5</f>
-        <v>1.0274023531873664</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.0685297860088121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B17">
+        <f t="shared" si="8"/>
+        <v>0.64999999999999969</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.64999999999999969</v>
-      </c>
-      <c r="C17">
-        <f>B17*x_1</f>
         <v>389.99999999999983</v>
       </c>
       <c r="D17">
-        <f>x_1-C17</f>
+        <f t="shared" si="1"/>
         <v>210.00000000000017</v>
       </c>
       <c r="E17">
-        <f>(-(x_1+D17)+SQRT((x_1+D17)^2+4*(dd-1)*D17*x_1))/(2*(dd-1))</f>
-        <v>204.69996556392329</v>
+        <f t="shared" si="2"/>
+        <v>200.00000000000014</v>
       </c>
       <c r="F17">
-        <f>x_1-E17</f>
-        <v>395.30003443607671</v>
+        <f t="shared" si="3"/>
+        <v>399.99999999999989</v>
       </c>
       <c r="G17">
-        <f>Pn*(1-(F17/x_1)^2)</f>
-        <v>56.593856326343492</v>
+        <f t="shared" si="4"/>
+        <v>55.555555555555578</v>
       </c>
       <c r="H17">
-        <f>En*(2*(F17/x_1)-((F17/x_1)^2))</f>
-        <v>88.360534471702394</v>
+        <f t="shared" si="5"/>
+        <v>88.888888888888886</v>
       </c>
       <c r="I17">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C17,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0.67909099222679292</v>
       </c>
       <c r="J17">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F17,0)^5</f>
-        <v>0.72650598362690644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0.77073466292589277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B18">
+        <f t="shared" si="8"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.59999999999999964</v>
-      </c>
-      <c r="C18">
-        <f>B18*x_1</f>
         <v>359.99999999999977</v>
       </c>
       <c r="D18">
-        <f>x_1-C18</f>
+        <f t="shared" si="1"/>
         <v>240.00000000000023</v>
       </c>
       <c r="E18">
-        <f>(-(x_1+D18)+SQRT((x_1+D18)^2+4*(dd-1)*D18*x_1))/(2*(dd-1))</f>
-        <v>232.63422376702761</v>
+        <f t="shared" si="2"/>
+        <v>226.29658163573424</v>
       </c>
       <c r="F18">
-        <f>x_1-E18</f>
-        <v>367.36577623297239</v>
+        <f t="shared" si="3"/>
+        <v>373.70341836426576</v>
       </c>
       <c r="G18">
-        <f>Pn*(1-(F18/x_1)^2)</f>
-        <v>62.511774014651579</v>
+        <f t="shared" si="4"/>
+        <v>61.20715419523961</v>
       </c>
       <c r="H18">
-        <f>En*(2*(F18/x_1)-((F18/x_1)^2))</f>
-        <v>84.967032758975705</v>
+        <f t="shared" si="5"/>
+        <v>85.77496031666152</v>
       </c>
       <c r="I18">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C18,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0.45511111111110963</v>
       </c>
       <c r="J18">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F18,0)^5</f>
-        <v>0.50361471336900943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0.54858040031006428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B19">
+        <f t="shared" si="8"/>
+        <v>0.5499999999999996</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.5499999999999996</v>
-      </c>
-      <c r="C19">
-        <f>B19*x_1</f>
         <v>329.99999999999977</v>
       </c>
       <c r="D19">
-        <f>x_1-C19</f>
+        <f t="shared" si="1"/>
         <v>270.00000000000023</v>
       </c>
       <c r="E19">
-        <f>(-(x_1+D19)+SQRT((x_1+D19)^2+4*(dd-1)*D19*x_1))/(2*(dd-1))</f>
-        <v>260.0531986398687</v>
+        <f t="shared" si="2"/>
+        <v>251.79260017583681</v>
       </c>
       <c r="F19">
-        <f>x_1-E19</f>
-        <v>339.9468013601313</v>
+        <f t="shared" si="3"/>
+        <v>348.20739982416319</v>
       </c>
       <c r="G19">
-        <f>Pn*(1-(F19/x_1)^2)</f>
-        <v>67.898936734726504</v>
+        <f t="shared" si="4"/>
+        <v>66.319890752137596</v>
       </c>
       <c r="H19">
-        <f>En*(2*(F19/x_1)-((F19/x_1)^2))</f>
-        <v>81.214537188103606</v>
+        <f t="shared" si="5"/>
+        <v>82.389024026858664</v>
       </c>
       <c r="I19">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C19,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0.29456058527663359</v>
       </c>
       <c r="J19">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F19,0)^5</f>
-        <v>0.3417116066909584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0.3852963682896442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20">
+        <f t="shared" si="8"/>
+        <v>0.49999999999999961</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.49999999999999961</v>
-      </c>
-      <c r="C20">
-        <f>B20*x_1</f>
         <v>299.99999999999977</v>
       </c>
       <c r="D20">
-        <f>x_1-C20</f>
+        <f t="shared" si="1"/>
         <v>300.00000000000023</v>
       </c>
       <c r="E20">
-        <f>(-(x_1+D20)+SQRT((x_1+D20)^2+4*(dd-1)*D20*x_1))/(2*(dd-1))</f>
-        <v>286.86063842843339</v>
+        <f t="shared" si="2"/>
+        <v>276.39320225002126</v>
       </c>
       <c r="F20">
-        <f>x_1-E20</f>
-        <v>313.13936157156661</v>
+        <f t="shared" si="3"/>
+        <v>323.60679774997874</v>
       </c>
       <c r="G20">
-        <f>Pn*(1-(F20/x_1)^2)</f>
-        <v>72.762150065153236</v>
+        <f t="shared" si="4"/>
+        <v>70.910733458334533</v>
       </c>
       <c r="H20">
-        <f>En*(2*(F20/x_1)-((F20/x_1)^2))</f>
-        <v>77.141937255675444</v>
+        <f t="shared" si="5"/>
+        <v>78.779666041660775</v>
       </c>
       <c r="I20">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C20,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0.18289894833104639</v>
       </c>
       <c r="J20">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F20,0)^5</f>
-        <v>0.22661739538264283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0.26711182479333123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21">
+        <f t="shared" si="8"/>
+        <v>0.44999999999999962</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.44999999999999962</v>
-      </c>
-      <c r="C21">
-        <f>B21*x_1</f>
         <v>269.99999999999977</v>
       </c>
       <c r="D21">
-        <f>x_1-C21</f>
+        <f t="shared" si="1"/>
         <v>330.00000000000023</v>
       </c>
       <c r="E21">
-        <f>(-(x_1+D21)+SQRT((x_1+D21)^2+4*(dd-1)*D21*x_1))/(2*(dd-1))</f>
-        <v>312.94200177633263</v>
+        <f t="shared" si="2"/>
+        <v>300.00000000000023</v>
       </c>
       <c r="F21">
-        <f>x_1-E21</f>
-        <v>287.05799822366737</v>
+        <f t="shared" si="3"/>
+        <v>299.99999999999977</v>
       </c>
       <c r="G21">
-        <f>Pn*(1-(F21/x_1)^2)</f>
-        <v>77.110473793283603</v>
+        <f t="shared" si="4"/>
+        <v>75.000000000000043</v>
       </c>
       <c r="H21">
-        <f>En*(2*(F21/x_1)-((F21/x_1)^2))</f>
-        <v>72.796473201172731</v>
+        <f t="shared" si="5"/>
+        <v>74.999999999999957</v>
       </c>
       <c r="I21">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C21,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0.10799999999999954</v>
       </c>
       <c r="J21">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F21,0)^5</f>
-        <v>0.1467077966835855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0.18289894833104639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B22">
+        <f t="shared" si="8"/>
+        <v>0.39999999999999963</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.39999999999999963</v>
-      </c>
-      <c r="C22">
-        <f>B22*x_1</f>
         <v>239.99999999999977</v>
       </c>
       <c r="D22">
-        <f>x_1-C22</f>
+        <f t="shared" si="1"/>
         <v>360.00000000000023</v>
       </c>
       <c r="E22">
-        <f>(-(x_1+D22)+SQRT((x_1+D22)^2+4*(dd-1)*D22*x_1))/(2*(dd-1))</f>
-        <v>338.16307509065768</v>
+        <f t="shared" si="2"/>
+        <v>322.51482265544155</v>
       </c>
       <c r="F22">
-        <f>x_1-E22</f>
-        <v>261.83692490934232</v>
+        <f t="shared" si="3"/>
+        <v>277.48517734455845</v>
       </c>
       <c r="G22">
-        <f>Pn*(1-(F22/x_1)^2)</f>
-        <v>80.955951320560942</v>
+        <f t="shared" si="4"/>
+        <v>78.611660098349702</v>
       </c>
       <c r="H22">
-        <f>En*(2*(F22/x_1)-((F22/x_1)^2))</f>
-        <v>68.234926290341718</v>
+        <f t="shared" si="5"/>
+        <v>71.106719213202524</v>
       </c>
       <c r="I22">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C22,0)^5</f>
+        <f t="shared" si="6"/>
         <v>5.9932327389117218E-2</v>
       </c>
       <c r="J22">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F22,0)^5</f>
-        <v>9.2631648707324793E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0.12382372926292322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B23">
+        <f t="shared" si="8"/>
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.34999999999999964</v>
-      </c>
-      <c r="C23">
-        <f>B23*x_1</f>
         <v>209.99999999999977</v>
       </c>
       <c r="D23">
-        <f>x_1-C23</f>
+        <f t="shared" si="1"/>
         <v>390.00000000000023</v>
       </c>
       <c r="E23">
-        <f>(-(x_1+D23)+SQRT((x_1+D23)^2+4*(dd-1)*D23*x_1))/(2*(dd-1))</f>
-        <v>362.37038492967031</v>
+        <f t="shared" si="2"/>
+        <v>343.84471871911717</v>
       </c>
       <c r="F23">
-        <f>x_1-E23</f>
-        <v>237.62961507032969</v>
+        <f t="shared" si="3"/>
+        <v>256.15528128088283</v>
       </c>
       <c r="G23">
-        <f>Pn*(1-(F23/x_1)^2)</f>
-        <v>84.314490567090814</v>
+        <f t="shared" si="4"/>
+        <v>81.773464408864399</v>
       </c>
       <c r="H23">
-        <f>En*(2*(F23/x_1)-((F23/x_1)^2))</f>
-        <v>63.524362257200714</v>
+        <f t="shared" si="5"/>
+        <v>67.158558169158667</v>
       </c>
       <c r="I23">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C23,0)^5</f>
+        <f t="shared" si="6"/>
         <v>3.0739826245998914E-2</v>
       </c>
       <c r="J23">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F23,0)^5</f>
-        <v>5.7030575910646281E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>8.3008297494138114E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24">
+        <f t="shared" si="8"/>
+        <v>0.29999999999999966</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.29999999999999966</v>
-      </c>
-      <c r="C24">
-        <f>B24*x_1</f>
         <v>179.9999999999998</v>
       </c>
       <c r="D24">
-        <f>x_1-C24</f>
+        <f t="shared" si="1"/>
         <v>420.00000000000023</v>
       </c>
       <c r="E24">
-        <f>(-(x_1+D24)+SQRT((x_1+D24)^2+4*(dd-1)*D24*x_1))/(2*(dd-1))</f>
-        <v>385.39479400065113</v>
+        <f t="shared" si="2"/>
+        <v>363.90791565672617</v>
       </c>
       <c r="F24">
-        <f>x_1-E24</f>
-        <v>214.60520599934887</v>
+        <f t="shared" si="3"/>
+        <v>236.09208434327383</v>
       </c>
       <c r="G24">
-        <f>Pn*(1-(F24/x_1)^2)</f>
-        <v>87.20683487721584</v>
+        <f t="shared" si="4"/>
+        <v>84.516813252902352</v>
       </c>
       <c r="H24">
-        <f>En*(2*(F24/x_1)-((F24/x_1)^2))</f>
-        <v>58.741903543665465</v>
+        <f t="shared" si="5"/>
+        <v>63.214174700660294</v>
       </c>
       <c r="I24">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C24,0)^5</f>
+        <f t="shared" si="6"/>
         <v>1.422222222222214E-2</v>
       </c>
       <c r="J24">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F24,0)^5</f>
-        <v>3.4261486373780493E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5.520927785367602E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B25">
+        <f t="shared" si="8"/>
+        <v>0.24999999999999967</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.24999999999999967</v>
-      </c>
-      <c r="C25">
-        <f>B25*x_1</f>
         <v>149.9999999999998</v>
       </c>
       <c r="D25">
-        <f>x_1-C25</f>
+        <f t="shared" si="1"/>
         <v>450.00000000000023</v>
       </c>
       <c r="E25">
-        <f>(-(x_1+D25)+SQRT((x_1+D25)^2+4*(dd-1)*D25*x_1))/(2*(dd-1))</f>
-        <v>407.05982435853349</v>
+        <f t="shared" si="2"/>
+        <v>382.64009035346197</v>
       </c>
       <c r="F25">
-        <f>x_1-E25</f>
-        <v>192.94017564146651</v>
+        <f t="shared" si="3"/>
+        <v>217.35990964653803</v>
       </c>
       <c r="G25">
-        <f>Pn*(1-(F25/x_1)^2)</f>
-        <v>89.659469062066677</v>
+        <f t="shared" si="4"/>
+        <v>86.876297132902465</v>
       </c>
       <c r="H25">
-        <f>En*(2*(F25/x_1)-((F25/x_1)^2))</f>
-        <v>53.972860942555513</v>
+        <f t="shared" si="5"/>
+        <v>59.329600348415127</v>
       </c>
       <c r="I25">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C25,0)^5</f>
+        <f t="shared" si="6"/>
         <v>5.7155921353451841E-3</v>
       </c>
       <c r="J25">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F25,0)^5</f>
-        <v>2.0124184133939932E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3.6517594271896728E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26">
+        <f t="shared" si="8"/>
+        <v>0.19999999999999968</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.19999999999999968</v>
-      </c>
-      <c r="C26">
-        <f>B26*x_1</f>
         <v>119.9999999999998</v>
       </c>
       <c r="D26">
-        <f>x_1-C26</f>
+        <f t="shared" si="1"/>
         <v>480.00000000000023</v>
       </c>
       <c r="E26">
-        <f>(-(x_1+D26)+SQRT((x_1+D26)^2+4*(dd-1)*D26*x_1))/(2*(dd-1))</f>
-        <v>427.19570668422398</v>
+        <f t="shared" si="2"/>
+        <v>400.00000000000023</v>
       </c>
       <c r="F26">
-        <f>x_1-E26</f>
-        <v>172.80429331577602</v>
+        <f t="shared" si="3"/>
+        <v>199.99999999999977</v>
       </c>
       <c r="G26">
-        <f>Pn*(1-(F26/x_1)^2)</f>
-        <v>91.705187836565344</v>
+        <f t="shared" si="4"/>
+        <v>88.8888888888889</v>
       </c>
       <c r="H26">
-        <f>En*(2*(F26/x_1)-((F26/x_1)^2))</f>
-        <v>49.30661894182402</v>
+        <f t="shared" si="5"/>
+        <v>55.555555555555515</v>
       </c>
       <c r="I26">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C26,0)^5</f>
+        <f t="shared" si="6"/>
         <v>1.8728852309099063E-3</v>
       </c>
       <c r="J26">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F26,0)^5</f>
-        <v>1.159785236850935E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2.4085458216434048E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27">
+        <f t="shared" si="8"/>
+        <v>0.14999999999999969</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.14999999999999969</v>
-      </c>
-      <c r="C27">
-        <f>B27*x_1</f>
         <v>89.999999999999815</v>
       </c>
       <c r="D27">
-        <f>x_1-C27</f>
+        <f t="shared" si="1"/>
         <v>510.00000000000017</v>
       </c>
       <c r="E27">
-        <f>(-(x_1+D27)+SQRT((x_1+D27)^2+4*(dd-1)*D27*x_1))/(2*(dd-1))</f>
-        <v>445.65845704117692</v>
+        <f t="shared" si="2"/>
+        <v>415.97342368679517</v>
       </c>
       <c r="F27">
-        <f>x_1-E27</f>
-        <v>154.34154295882308</v>
+        <f t="shared" si="3"/>
+        <v>184.02657631320483</v>
       </c>
       <c r="G27">
-        <f>Pn*(1-(F27/x_1)^2)</f>
-        <v>93.38296892141382</v>
+        <f t="shared" si="4"/>
+        <v>90.592838669566717</v>
       </c>
       <c r="H27">
-        <f>En*(2*(F27/x_1)-((F27/x_1)^2))</f>
-        <v>44.830149907688188</v>
+        <f t="shared" si="5"/>
+        <v>51.935030773968329</v>
       </c>
       <c r="I27">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C27,0)^5</f>
+        <f t="shared" si="6"/>
         <v>4.4444444444443975E-4</v>
       </c>
       <c r="J27">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F27,0)^5</f>
-        <v>6.5920292034831853E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.5885747926774954E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B28">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999686E-2</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="0"/>
-        <v>9.9999999999999686E-2</v>
-      </c>
-      <c r="C28">
-        <f>B28*x_1</f>
         <v>59.999999999999815</v>
       </c>
       <c r="D28">
-        <f>x_1-C28</f>
+        <f t="shared" si="1"/>
         <v>540.00000000000023</v>
       </c>
       <c r="E28">
-        <f>(-(x_1+D28)+SQRT((x_1+D28)^2+4*(dd-1)*D28*x_1))/(2*(dd-1))</f>
-        <v>462.35055967766311</v>
+        <f t="shared" si="2"/>
+        <v>430.5745823233928</v>
       </c>
       <c r="F28">
-        <f>x_1-E28</f>
-        <v>137.64944032233689</v>
+        <f t="shared" si="3"/>
+        <v>169.4254176766072</v>
       </c>
       <c r="G28">
-        <f>Pn*(1-(F28/x_1)^2)</f>
-        <v>94.736842105263179</v>
+        <f t="shared" si="4"/>
+        <v>92.026396623640892</v>
       </c>
       <c r="H28">
-        <f>En*(2*(F28/x_1)-((F28/x_1)^2))</f>
-        <v>40.619988879375462</v>
+        <f t="shared" si="5"/>
+        <v>48.501535849176619</v>
       </c>
       <c r="I28">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C28,0)^5</f>
+        <f t="shared" si="6"/>
         <v>5.8527663465934153E-5</v>
       </c>
       <c r="J28">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F28,0)^5</f>
-        <v>3.7194368049215157E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.0507460340870352E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B29">
+        <f t="shared" si="8"/>
+        <v>4.9999999999999684E-2</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="0"/>
-        <v>4.9999999999999684E-2</v>
-      </c>
-      <c r="C29">
-        <f>B29*x_1</f>
         <v>29.999999999999812</v>
       </c>
       <c r="D29">
-        <f>x_1-C29</f>
+        <f t="shared" si="1"/>
         <v>570.00000000000023</v>
       </c>
       <c r="E29">
-        <f>(-(x_1+D29)+SQRT((x_1+D29)^2+4*(dd-1)*D29*x_1))/(2*(dd-1))</f>
-        <v>477.23740440959824</v>
+        <f t="shared" si="2"/>
+        <v>443.84471871911705</v>
       </c>
       <c r="F29">
-        <f>x_1-E29</f>
-        <v>122.76259559040176</v>
+        <f t="shared" si="3"/>
+        <v>156.15528128088295</v>
       </c>
       <c r="G29">
-        <f>Pn*(1-(F29/x_1)^2)</f>
-        <v>95.813706978863195</v>
+        <f t="shared" si="4"/>
+        <v>93.226535591135644</v>
       </c>
       <c r="H29">
-        <f>En*(2*(F29/x_1)-((F29/x_1)^2))</f>
-        <v>36.734572175663772</v>
+        <f t="shared" si="5"/>
+        <v>45.278296018096626</v>
       </c>
       <c r="I29">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C29,0)^5</f>
+        <f t="shared" si="6"/>
         <v>1.8289894833104135E-6</v>
       </c>
       <c r="J29">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F29,0)^5</f>
-        <v>2.098626950635321E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>6.9885699985180304E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -4798,1635 +4798,1635 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f>B30*x_1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30">
-        <f>x_1-C30</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="E30">
-        <f>(-(x_1+D30)+SQRT((x_1+D30)^2+4*(dd-1)*D30*x_1))/(2*(dd-1))</f>
-        <v>490.353601421066</v>
+        <f t="shared" si="2"/>
+        <v>455.84815598877475</v>
       </c>
       <c r="F30">
-        <f>x_1-E30</f>
-        <v>109.646398578934</v>
+        <f t="shared" si="3"/>
+        <v>144.15184401122525</v>
       </c>
       <c r="G30">
-        <f>Pn*(1-(F30/x_1)^2)</f>
-        <v>96.660463132963756</v>
+        <f t="shared" si="4"/>
+        <v>94.227846074489833</v>
       </c>
       <c r="H30">
-        <f>En*(2*(F30/x_1)-((F30/x_1)^2))</f>
-        <v>33.209262659275097</v>
+        <f t="shared" si="5"/>
+        <v>42.278460744898247</v>
       </c>
       <c r="I30">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C30,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F30,0)^5</f>
-        <v>1.192825163335211E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>4.684960636775923E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31">
+        <f t="shared" si="8"/>
+        <v>-0.05</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="C31">
-        <f>B31*x_1</f>
         <v>-30</v>
       </c>
       <c r="D31">
-        <f>x_1-C31</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="E31">
-        <f>(-(x_1+D31)+SQRT((x_1+D31)^2+4*(dd-1)*D31*x_1))/(2*(dd-1))</f>
-        <v>501.79666646379656</v>
+        <f t="shared" si="2"/>
+        <v>466.66666666666663</v>
       </c>
       <c r="F31">
-        <f>x_1-E31</f>
-        <v>98.203333536203445</v>
+        <f t="shared" si="3"/>
+        <v>133.33333333333337</v>
       </c>
       <c r="G31">
-        <f>Pn*(1-(F31/x_1)^2)</f>
-        <v>97.321140356215892</v>
+        <f t="shared" si="4"/>
+        <v>95.061728395061735</v>
       </c>
       <c r="H31">
-        <f>En*(2*(F31/x_1)-((F31/x_1)^2))</f>
-        <v>30.055584868283702</v>
+        <f t="shared" si="5"/>
+        <v>39.506172839506185</v>
       </c>
       <c r="I31">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C31,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F31,0)^5</f>
-        <v>6.8744203758666362E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3.1717475840571806E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B32">
+        <f t="shared" si="8"/>
+        <v>-0.1</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
-      </c>
-      <c r="C32">
-        <f>B32*x_1</f>
         <v>-60</v>
       </c>
       <c r="D32">
-        <f>x_1-C32</f>
+        <f t="shared" si="1"/>
         <v>660</v>
       </c>
       <c r="E32">
-        <f>(-(x_1+D32)+SQRT((x_1+D32)^2+4*(dd-1)*D32*x_1))/(2*(dd-1))</f>
-        <v>511.71058347433524</v>
+        <f t="shared" si="2"/>
+        <v>476.39320225002103</v>
       </c>
       <c r="F32">
-        <f>x_1-E32</f>
-        <v>88.289416525664763</v>
+        <f t="shared" si="3"/>
+        <v>123.60679774997897</v>
       </c>
       <c r="G32">
-        <f>Pn*(1-(F32/x_1)^2)</f>
-        <v>97.834716369321569</v>
+        <f t="shared" si="4"/>
+        <v>95.755933208332166</v>
       </c>
       <c r="H32">
-        <f>En*(2*(F32/x_1)-((F32/x_1)^2))</f>
-        <v>27.264521877876497</v>
+        <f t="shared" si="5"/>
+        <v>36.958199124991822</v>
       </c>
       <c r="I32">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C32,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F32,0)^5</f>
-        <v>4.0378312822971505E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2.1717844125561814E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33">
+        <f t="shared" si="8"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="0"/>
-        <v>-0.15000000000000002</v>
-      </c>
-      <c r="C33">
-        <f>B33*x_1</f>
         <v>-90.000000000000014</v>
       </c>
       <c r="D33">
-        <f>x_1-C33</f>
+        <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="E33">
-        <f>(-(x_1+D33)+SQRT((x_1+D33)^2+4*(dd-1)*D33*x_1))/(2*(dd-1))</f>
-        <v>520.26512177177551</v>
+        <f t="shared" si="2"/>
+        <v>485.1259335091699</v>
       </c>
       <c r="F33">
-        <f>x_1-E33</f>
-        <v>79.734878228224488</v>
+        <f t="shared" si="3"/>
+        <v>114.8740664908301</v>
       </c>
       <c r="G33">
-        <f>Pn*(1-(F33/x_1)^2)</f>
-        <v>98.233985887202834</v>
+        <f t="shared" si="4"/>
+        <v>96.334430235516763</v>
       </c>
       <c r="H33">
-        <f>En*(2*(F33/x_1)-((F33/x_1)^2))</f>
-        <v>24.812278629944331</v>
+        <f t="shared" si="5"/>
+        <v>34.62578573246013</v>
       </c>
       <c r="I33">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C33,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F33,0)^5</f>
-        <v>2.4257531902675911E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.5056183894770112E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34">
+        <f t="shared" si="8"/>
+        <v>-0.2</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
-      </c>
-      <c r="C34">
-        <f>B34*x_1</f>
         <v>-120</v>
       </c>
       <c r="D34">
-        <f>x_1-C34</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="E34">
-        <f>(-(x_1+D34)+SQRT((x_1+D34)^2+4*(dd-1)*D34*x_1))/(2*(dd-1))</f>
-        <v>527.6367593011837</v>
+        <f t="shared" si="2"/>
+        <v>492.9632483024007</v>
       </c>
       <c r="F34">
-        <f>x_1-E34</f>
-        <v>72.363240698816298</v>
+        <f t="shared" si="3"/>
+        <v>107.0367516975993</v>
       </c>
       <c r="G34">
-        <f>Pn*(1-(F34/x_1)^2)</f>
-        <v>98.545433720990331</v>
+        <f t="shared" si="4"/>
+        <v>96.817537162785129</v>
       </c>
       <c r="H34">
-        <f>En*(2*(F34/x_1)-((F34/x_1)^2))</f>
-        <v>22.666513953929094</v>
+        <f t="shared" si="5"/>
+        <v>32.496454395318231</v>
       </c>
       <c r="I34">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C34,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J34">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F34,0)^5</f>
-        <v>1.4934647432990152E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.0574736121956069E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35">
+        <f t="shared" si="8"/>
+        <v>-0.25</v>
+      </c>
+      <c r="C35">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
-      </c>
-      <c r="C35">
-        <f>B35*x_1</f>
         <v>-150</v>
       </c>
       <c r="D35">
-        <f>x_1-C35</f>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="E35">
-        <f>(-(x_1+D35)+SQRT((x_1+D35)^2+4*(dd-1)*D35*x_1))/(2*(dd-1))</f>
-        <v>533.9946333552798</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="F35">
-        <f>x_1-E35</f>
-        <v>66.005366644720198</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="G35">
-        <f>Pn*(1-(F35/x_1)^2)</f>
-        <v>98.78980321502668</v>
+        <f t="shared" si="4"/>
+        <v>97.222222222222214</v>
       </c>
       <c r="H35">
-        <f>En*(2*(F35/x_1)-((F35/x_1)^2))</f>
-        <v>20.791592096600084</v>
+        <f t="shared" si="5"/>
+        <v>30.555555555555554</v>
       </c>
       <c r="I35">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C35,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F35,0)^5</f>
-        <v>9.429771599420866E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.5267056926356813E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36">
+        <f t="shared" si="8"/>
+        <v>-0.3</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="0"/>
-        <v>-0.3</v>
-      </c>
-      <c r="C36">
-        <f>B36*x_1</f>
         <v>-180</v>
       </c>
       <c r="D36">
-        <f>x_1-C36</f>
+        <f t="shared" si="1"/>
         <v>780</v>
       </c>
       <c r="E36">
-        <f>(-(x_1+D36)+SQRT((x_1+D36)^2+4*(dd-1)*D36*x_1))/(2*(dd-1))</f>
-        <v>539.49221737580172</v>
+        <f t="shared" si="2"/>
+        <v>506.32501080311152</v>
       </c>
       <c r="F36">
-        <f>x_1-E36</f>
-        <v>60.507782624198285</v>
+        <f t="shared" si="3"/>
+        <v>93.674989196888475</v>
       </c>
       <c r="G36">
-        <f>Pn*(1-(F36/x_1)^2)</f>
-        <v>98.983002289417428</v>
+        <f t="shared" si="4"/>
+        <v>97.562498999711906</v>
       </c>
       <c r="H36">
-        <f>En*(2*(F36/x_1)-((F36/x_1)^2))</f>
-        <v>19.152263164150195</v>
+        <f t="shared" si="5"/>
+        <v>28.787495398674722</v>
       </c>
       <c r="I36">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C36,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F36,0)^5</f>
-        <v>6.104654994576098E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5.4290418956164837E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37">
+        <f t="shared" si="8"/>
+        <v>-0.35</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="0"/>
-        <v>-0.35</v>
-      </c>
-      <c r="C37">
-        <f>B37*x_1</f>
         <v>-210</v>
       </c>
       <c r="D37">
-        <f>x_1-C37</f>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
       <c r="E37">
-        <f>(-(x_1+D37)+SQRT((x_1+D37)^2+4*(dd-1)*D37*x_1))/(2*(dd-1))</f>
-        <v>544.26372495565784</v>
+        <f t="shared" si="2"/>
+        <v>512.0196567316716</v>
       </c>
       <c r="F37">
-        <f>x_1-E37</f>
-        <v>55.736275044342165</v>
+        <f t="shared" si="3"/>
+        <v>87.980343268328397</v>
       </c>
       <c r="G37">
-        <f>Pn*(1-(F37/x_1)^2)</f>
-        <v>99.137074345605953</v>
+        <f t="shared" si="4"/>
+        <v>97.849849777329752</v>
       </c>
       <c r="H37">
-        <f>En*(2*(F37/x_1)-((F37/x_1)^2))</f>
-        <v>17.71583269372001</v>
+        <f t="shared" si="5"/>
+        <v>27.176630866772548</v>
       </c>
       <c r="I37">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C37,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F37,0)^5</f>
-        <v>4.0485046088342293E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3.967648544349183E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38">
+        <f t="shared" si="8"/>
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="0"/>
-        <v>-0.39999999999999997</v>
-      </c>
-      <c r="C38">
-        <f>B38*x_1</f>
         <v>-239.99999999999997</v>
       </c>
       <c r="D38">
-        <f>x_1-C38</f>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="E38">
-        <f>(-(x_1+D38)+SQRT((x_1+D38)^2+4*(dd-1)*D38*x_1))/(2*(dd-1))</f>
-        <v>548.4236974512379</v>
+        <f t="shared" si="2"/>
+        <v>517.15728752538098</v>
       </c>
       <c r="F38">
-        <f>x_1-E38</f>
-        <v>51.576302548762101</v>
+        <f t="shared" si="3"/>
+        <v>82.84271247461902</v>
       </c>
       <c r="G38">
-        <f>Pn*(1-(F38/x_1)^2)</f>
-        <v>99.261079170944043</v>
+        <f t="shared" si="4"/>
+        <v>98.093634719402118</v>
       </c>
       <c r="H38">
-        <f>En*(2*(F38/x_1)-((F38/x_1)^2))</f>
-        <v>16.453180020531409</v>
+        <f t="shared" si="5"/>
+        <v>25.707872210941783</v>
       </c>
       <c r="I38">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C38,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F38,0)^5</f>
-        <v>2.746982917408986E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2.9368143009832171E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39">
+        <f t="shared" si="8"/>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="0"/>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="C39">
-        <f>B39*x_1</f>
         <v>-270</v>
       </c>
       <c r="D39">
-        <f>x_1-C39</f>
+        <f t="shared" si="1"/>
         <v>870</v>
       </c>
       <c r="E39">
-        <f>(-(x_1+D39)+SQRT((x_1+D39)^2+4*(dd-1)*D39*x_1))/(2*(dd-1))</f>
-        <v>552.06838661655468</v>
+        <f t="shared" si="2"/>
+        <v>521.80323311743109</v>
       </c>
       <c r="F39">
-        <f>x_1-E39</f>
-        <v>47.931613383445324</v>
+        <f t="shared" si="3"/>
+        <v>78.196766882568909</v>
       </c>
       <c r="G39">
-        <f>Pn*(1-(F39/x_1)^2)</f>
-        <v>99.361822344016645</v>
+        <f t="shared" si="4"/>
+        <v>98.301462680309214</v>
       </c>
       <c r="H39">
-        <f>En*(2*(F39/x_1)-((F39/x_1)^2))</f>
-        <v>15.339026805165087</v>
+        <f t="shared" si="5"/>
+        <v>24.367051641165517</v>
       </c>
       <c r="I39">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C39,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J39">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F39,0)^5</f>
-        <v>1.9042114528418689E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2.2006395827510759E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40">
+        <f t="shared" si="8"/>
+        <v>-0.49999999999999994</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="0"/>
-        <v>-0.49999999999999994</v>
-      </c>
-      <c r="C40">
-        <f>B40*x_1</f>
         <v>-299.99999999999994</v>
       </c>
       <c r="D40">
-        <f>x_1-C40</f>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="E40">
-        <f>(-(x_1+D40)+SQRT((x_1+D40)^2+4*(dd-1)*D40*x_1))/(2*(dd-1))</f>
-        <v>555.27794251276862</v>
+        <f t="shared" si="2"/>
+        <v>526.01518475690375</v>
       </c>
       <c r="F40">
-        <f>x_1-E40</f>
-        <v>44.722057487231382</v>
+        <f t="shared" si="3"/>
+        <v>73.98481524309625</v>
       </c>
       <c r="G40">
-        <f>Pn*(1-(F40/x_1)^2)</f>
-        <v>99.444427103919111</v>
+        <f t="shared" si="4"/>
+        <v>98.479513087068028</v>
       </c>
       <c r="H40">
-        <f>En*(2*(F40/x_1)-((F40/x_1)^2))</f>
-        <v>14.351779599662898</v>
+        <f t="shared" si="5"/>
+        <v>23.141118168100117</v>
       </c>
       <c r="I40">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C40,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F40,0)^5</f>
-        <v>1.3465231126720883E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.6684680811802739E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41">
+        <f t="shared" si="8"/>
+        <v>-0.54999999999999993</v>
+      </c>
+      <c r="C41">
         <f t="shared" si="0"/>
-        <v>-0.54999999999999993</v>
-      </c>
-      <c r="C41">
-        <f>B41*x_1</f>
         <v>-329.99999999999994</v>
       </c>
       <c r="D41">
-        <f>x_1-C41</f>
+        <f t="shared" si="1"/>
         <v>930</v>
       </c>
       <c r="E41">
-        <f>(-(x_1+D41)+SQRT((x_1+D41)^2+4*(dd-1)*D41*x_1))/(2*(dd-1))</f>
-        <v>558.11880248686532</v>
+        <f t="shared" si="2"/>
+        <v>529.84378812835757</v>
       </c>
       <c r="F41">
-        <f>x_1-E41</f>
-        <v>41.88119751313468</v>
+        <f t="shared" si="3"/>
+        <v>70.156211871642427</v>
       </c>
       <c r="G41">
-        <f>Pn*(1-(F41/x_1)^2)</f>
-        <v>99.512768137462729</v>
+        <f t="shared" si="4"/>
+        <v>98.63280720439478</v>
       </c>
       <c r="H41">
-        <f>En*(2*(F41/x_1)-((F41/x_1)^2))</f>
-        <v>13.473167308507616</v>
+        <f t="shared" si="5"/>
+        <v>22.018211161608924</v>
       </c>
       <c r="I41">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C41,0)^5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F41,0)^5</f>
-        <v>9.6984066453836725E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.2791915727639145E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-0.6</v>
       </c>
       <c r="C42">
-        <f>B42*x_1</f>
+        <f t="shared" ref="C42:C73" si="9">B42*x_1</f>
         <v>-360</v>
       </c>
       <c r="D42">
-        <f>x_1-C42</f>
+        <f t="shared" ref="D42:D73" si="10">x_1-C42</f>
         <v>960</v>
       </c>
       <c r="E42">
-        <f>(-(x_1+D42)+SQRT((x_1+D42)^2+4*(dd-1)*D42*x_1))/(2*(dd-1))</f>
-        <v>560.64596048730573</v>
+        <f t="shared" ref="E42:E73" si="11">(-(x_1+D42)+SQRT((x_1+D42)^2+4*(dd-1)*D42*x_1))/(2*(dd-1))</f>
+        <v>533.33333333333337</v>
       </c>
       <c r="F42">
-        <f>x_1-E42</f>
-        <v>39.354039512694271</v>
+        <f t="shared" ref="F42:F73" si="12">x_1-E42</f>
+        <v>66.666666666666629</v>
       </c>
       <c r="G42">
-        <f>Pn*(1-(F42/x_1)^2)</f>
-        <v>99.569794326120359</v>
+        <f t="shared" ref="G42:G73" si="13">Pn*(1-(F42/x_1)^2)</f>
+        <v>98.765432098765444</v>
       </c>
       <c r="H42">
-        <f>En*(2*(F42/x_1)-((F42/x_1)^2))</f>
-        <v>12.687807497018452</v>
+        <f t="shared" ref="H42:H72" si="14">En*(2*(F42/x_1)-((F42/x_1)^2))</f>
+        <v>20.987654320987641</v>
       </c>
       <c r="I42">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C42,0)^5</f>
+        <f t="shared" ref="I42:I72" si="15">x_1^(-4)/4 * (4/9)^4 *MAX(C42,0)^5</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F42,0)^5</f>
-        <v>7.1047945080661746E-6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J42:J72" si="16">x_1^(-4)/4 * (4/9)^4 *MAX(F42,0)^5</f>
+        <v>9.9117112001786487E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-0.65</v>
       </c>
       <c r="C43">
-        <f>B43*x_1</f>
+        <f t="shared" si="9"/>
         <v>-390</v>
       </c>
       <c r="D43">
-        <f>x_1-C43</f>
+        <f t="shared" si="10"/>
         <v>990</v>
       </c>
       <c r="E43">
-        <f>(-(x_1+D43)+SQRT((x_1+D43)^2+4*(dd-1)*D43*x_1))/(2*(dd-1))</f>
-        <v>562.90497516477683</v>
+        <f t="shared" si="11"/>
+        <v>536.52246588858645</v>
       </c>
       <c r="F43">
-        <f>x_1-E43</f>
-        <v>37.095024835223171</v>
+        <f t="shared" si="12"/>
+        <v>63.477534111413547</v>
       </c>
       <c r="G43">
-        <f>Pn*(1-(F43/x_1)^2)</f>
-        <v>99.617766425687265</v>
+        <f t="shared" si="13"/>
+        <v>98.88072296198176</v>
       </c>
       <c r="H43">
-        <f>En*(2*(F43/x_1)-((F43/x_1)^2))</f>
-        <v>11.982774704094995</v>
+        <f t="shared" si="14"/>
+        <v>20.03990099911961</v>
       </c>
       <c r="I43">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C43,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F43,0)^5</f>
-        <v>5.2866829459163685E-6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>7.757203278736574E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-0.70000000000000007</v>
       </c>
       <c r="C44">
-        <f>B44*x_1</f>
+        <f t="shared" si="9"/>
         <v>-420.00000000000006</v>
       </c>
       <c r="D44">
-        <f>x_1-C44</f>
+        <f t="shared" si="10"/>
         <v>1020</v>
       </c>
       <c r="E44">
-        <f>(-(x_1+D44)+SQRT((x_1+D44)^2+4*(dd-1)*D44*x_1))/(2*(dd-1))</f>
-        <v>564.93367644807483</v>
+        <f t="shared" si="11"/>
+        <v>539.44487245360108</v>
       </c>
       <c r="F44">
-        <f>x_1-E44</f>
-        <v>35.066323551925166</v>
+        <f t="shared" si="12"/>
+        <v>60.555127546398921</v>
       </c>
       <c r="G44">
-        <f>Pn*(1-(F44/x_1)^2)</f>
-        <v>99.658431375708801</v>
+        <f t="shared" si="13"/>
+        <v>98.981410146622039</v>
       </c>
       <c r="H44">
-        <f>En*(2*(F44/x_1)-((F44/x_1)^2))</f>
-        <v>11.347205893017193</v>
+        <f t="shared" si="14"/>
+        <v>19.16645266208835</v>
       </c>
       <c r="I44">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C44,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F44,0)^5</f>
-        <v>3.9907646168893028E-6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>6.1285756422501926E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-0.75000000000000011</v>
       </c>
       <c r="C45">
-        <f>B45*x_1</f>
+        <f t="shared" si="9"/>
         <v>-450.00000000000006</v>
       </c>
       <c r="D45">
-        <f>x_1-C45</f>
+        <f t="shared" si="10"/>
         <v>1050</v>
       </c>
       <c r="E45">
-        <f>(-(x_1+D45)+SQRT((x_1+D45)^2+4*(dd-1)*D45*x_1))/(2*(dd-1))</f>
-        <v>566.76358145458744</v>
+        <f t="shared" si="11"/>
+        <v>542.12991576259617</v>
       </c>
       <c r="F45">
-        <f>x_1-E45</f>
-        <v>33.236418545412562</v>
+        <f t="shared" si="12"/>
+        <v>57.87008423740383</v>
       </c>
       <c r="G45">
-        <f>Pn*(1-(F45/x_1)^2)</f>
-        <v>99.693150133965048</v>
+        <f t="shared" si="13"/>
+        <v>99.069737041765492</v>
       </c>
       <c r="H45">
-        <f>En*(2*(F45/x_1)-((F45/x_1)^2))</f>
-        <v>10.771956315769231</v>
+        <f t="shared" si="14"/>
+        <v>18.359765120900107</v>
       </c>
       <c r="I45">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C45,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J45">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F45,0)^5</f>
-        <v>3.0526430996719957E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>4.8851230483853673E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-0.80000000000000016</v>
       </c>
       <c r="C46">
-        <f>B46*x_1</f>
+        <f t="shared" si="9"/>
         <v>-480.00000000000011</v>
       </c>
       <c r="D46">
-        <f>x_1-C46</f>
+        <f t="shared" si="10"/>
         <v>1080</v>
       </c>
       <c r="E46">
-        <f>(-(x_1+D46)+SQRT((x_1+D46)^2+4*(dd-1)*D46*x_1))/(2*(dd-1))</f>
-        <v>568.42105263157896</v>
+        <f t="shared" si="11"/>
+        <v>544.60320701031321</v>
       </c>
       <c r="F46">
-        <f>x_1-E46</f>
-        <v>31.578947368421041</v>
+        <f t="shared" si="12"/>
+        <v>55.396792989686787</v>
       </c>
       <c r="G46">
-        <f>Pn*(1-(F46/x_1)^2)</f>
-        <v>99.7229916897507</v>
+        <f t="shared" si="13"/>
+        <v>99.147554257349384</v>
       </c>
       <c r="H46">
-        <f>En*(2*(F46/x_1)-((F46/x_1)^2))</f>
-        <v>10.249307479224374</v>
+        <f t="shared" si="14"/>
+        <v>17.613151920578314</v>
       </c>
       <c r="I46">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C46,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F46,0)^5</f>
-        <v>2.3637044991308889E-6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>3.9267029790353549E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-0.8500000000000002</v>
       </c>
       <c r="C47">
-        <f>B47*x_1</f>
+        <f t="shared" si="9"/>
         <v>-510.00000000000011</v>
       </c>
       <c r="D47">
-        <f>x_1-C47</f>
+        <f t="shared" si="10"/>
         <v>1110</v>
       </c>
       <c r="E47">
-        <f>(-(x_1+D47)+SQRT((x_1+D47)^2+4*(dd-1)*D47*x_1))/(2*(dd-1))</f>
-        <v>569.92823746789145</v>
+        <f t="shared" si="11"/>
+        <v>546.88711258507249</v>
       </c>
       <c r="F47">
-        <f>x_1-E47</f>
-        <v>30.071762532108551</v>
+        <f t="shared" si="12"/>
+        <v>53.112887414927513</v>
       </c>
       <c r="G47">
-        <f>Pn*(1-(F47/x_1)^2)</f>
-        <v>99.748802527281242</v>
+        <f t="shared" si="13"/>
+        <v>99.216394775124783</v>
       </c>
       <c r="H47">
-        <f>En*(2*(F47/x_1)-((F47/x_1)^2))</f>
-        <v>9.7727233713174257</v>
+        <f t="shared" si="14"/>
+        <v>16.920690580100626</v>
       </c>
       <c r="I47">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C47,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F47,0)^5</f>
-        <v>1.8509698760612927E-6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>3.1812990394683738E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-0.90000000000000024</v>
       </c>
       <c r="C48">
-        <f>B48*x_1</f>
+        <f t="shared" si="9"/>
         <v>-540.00000000000011</v>
       </c>
       <c r="D48">
-        <f>x_1-C48</f>
+        <f t="shared" si="10"/>
         <v>1140</v>
       </c>
       <c r="E48">
-        <f>(-(x_1+D48)+SQRT((x_1+D48)^2+4*(dd-1)*D48*x_1))/(2*(dd-1))</f>
-        <v>571.30382795887226</v>
+        <f t="shared" si="11"/>
+        <v>549.00119712861101</v>
       </c>
       <c r="F48">
-        <f>x_1-E48</f>
-        <v>28.696172041127738</v>
+        <f t="shared" si="12"/>
+        <v>50.998802871388989</v>
       </c>
       <c r="G48">
-        <f>Pn*(1-(F48/x_1)^2)</f>
-        <v>99.77125825282944</v>
+        <f t="shared" si="13"/>
+        <v>99.277533918245879</v>
       </c>
       <c r="H48">
-        <f>En*(2*(F48/x_1)-((F48/x_1)^2))</f>
-        <v>9.3366489332053568</v>
+        <f t="shared" si="14"/>
+        <v>16.277134875375555</v>
       </c>
       <c r="I48">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C48,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F48,0)^5</f>
-        <v>1.4646193636478294E-6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>2.5965987481027432E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-0.95000000000000029</v>
       </c>
       <c r="C49">
-        <f>B49*x_1</f>
+        <f t="shared" si="9"/>
         <v>-570.00000000000023</v>
       </c>
       <c r="D49">
-        <f>x_1-C49</f>
+        <f t="shared" si="10"/>
         <v>1170.0000000000002</v>
       </c>
       <c r="E49">
-        <f>(-(x_1+D49)+SQRT((x_1+D49)^2+4*(dd-1)*D49*x_1))/(2*(dd-1))</f>
-        <v>572.56367365572407</v>
+        <f t="shared" si="11"/>
+        <v>550.96260763090504</v>
       </c>
       <c r="F49">
-        <f>x_1-E49</f>
-        <v>27.436326344275926</v>
+        <f t="shared" si="12"/>
+        <v>49.03739236909496</v>
       </c>
       <c r="G49">
-        <f>Pn*(1-(F49/x_1)^2)</f>
-        <v>99.790902221313999</v>
+        <f t="shared" si="13"/>
+        <v>99.332037263788735</v>
       </c>
       <c r="H49">
-        <f>En*(2*(F49/x_1)-((F49/x_1)^2))</f>
-        <v>8.93634433607264</v>
+        <f t="shared" si="14"/>
+        <v>15.677834720153715</v>
       </c>
       <c r="I49">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C49,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F49,0)^5</f>
-        <v>1.1701316720376885E-6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>2.1342327223169124E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.0000000000000002</v>
       </c>
       <c r="C50">
-        <f>B50*x_1</f>
+        <f t="shared" si="9"/>
         <v>-600.00000000000011</v>
       </c>
       <c r="D50">
-        <f>x_1-C50</f>
+        <f t="shared" si="10"/>
         <v>1200</v>
       </c>
       <c r="E50">
-        <f>(-(x_1+D50)+SQRT((x_1+D50)^2+4*(dd-1)*D50*x_1))/(2*(dd-1))</f>
-        <v>573.72127685686644</v>
+        <f t="shared" si="11"/>
+        <v>552.78640450004207</v>
       </c>
       <c r="F50">
-        <f>x_1-E50</f>
-        <v>26.278723143133561</v>
+        <f t="shared" si="12"/>
+        <v>47.213595499957933</v>
       </c>
       <c r="G50">
-        <f>Pn*(1-(F50/x_1)^2)</f>
-        <v>99.808174641657374</v>
+        <f t="shared" si="13"/>
+        <v>99.380798999990645</v>
       </c>
       <c r="H50">
-        <f>En*(2*(F50/x_1)-((F50/x_1)^2))</f>
-        <v>8.5677490227018911</v>
+        <f t="shared" si="14"/>
+        <v>15.118664166643297</v>
       </c>
       <c r="I50">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C50,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F50,0)^5</f>
-        <v>9.4324873627094096E-7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.7657951078247205E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.0500000000000003</v>
       </c>
       <c r="C51">
-        <f>B51*x_1</f>
+        <f t="shared" si="9"/>
         <v>-630.00000000000011</v>
       </c>
       <c r="D51">
-        <f>x_1-C51</f>
+        <f t="shared" si="10"/>
         <v>1230</v>
       </c>
       <c r="E51">
-        <f>(-(x_1+D51)+SQRT((x_1+D51)^2+4*(dd-1)*D51*x_1))/(2*(dd-1))</f>
-        <v>574.78819338161554</v>
+        <f t="shared" si="11"/>
+        <v>554.48584587126504</v>
       </c>
       <c r="F51">
-        <f>x_1-E51</f>
-        <v>25.211806618384458</v>
+        <f t="shared" si="12"/>
+        <v>45.514154128734958</v>
       </c>
       <c r="G51">
-        <f>Pn*(1-(F51/x_1)^2)</f>
-        <v>99.823434668621431</v>
+        <f t="shared" si="13"/>
+        <v>99.424572714984933</v>
       </c>
       <c r="H51">
-        <f>En*(2*(F51/x_1)-((F51/x_1)^2))</f>
-        <v>8.2273702080829256</v>
+        <f t="shared" si="14"/>
+        <v>14.595957424563252</v>
       </c>
       <c r="I51">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C51,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J51">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F51,0)^5</f>
-        <v>7.6669877829003627E-7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.4700676274355968E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.1000000000000003</v>
       </c>
       <c r="C52">
-        <f>B52*x_1</f>
+        <f t="shared" si="9"/>
         <v>-660.00000000000023</v>
       </c>
       <c r="D52">
-        <f>x_1-C52</f>
+        <f t="shared" si="10"/>
         <v>1260.0000000000002</v>
       </c>
       <c r="E52">
-        <f>(-(x_1+D52)+SQRT((x_1+D52)^2+4*(dd-1)*D52*x_1))/(2*(dd-1))</f>
-        <v>575.77435784830402</v>
+        <f t="shared" si="11"/>
+        <v>556.07263122412155</v>
       </c>
       <c r="F52">
-        <f>x_1-E52</f>
-        <v>24.225642151695979</v>
+        <f t="shared" si="12"/>
+        <v>43.927368775878449</v>
       </c>
       <c r="G52">
-        <f>Pn*(1-(F52/x_1)^2)</f>
-        <v>99.836977295093874</v>
+        <f t="shared" si="13"/>
+        <v>99.46399618678555</v>
       </c>
       <c r="H52">
-        <f>En*(2*(F52/x_1)-((F52/x_1)^2))</f>
-        <v>7.912191345659207</v>
+        <f t="shared" si="14"/>
+        <v>14.1064524454117</v>
       </c>
       <c r="I52">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C52,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F52,0)^5</f>
-        <v>6.2803149486769088E-7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.231064718697589E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.1500000000000004</v>
       </c>
       <c r="C53">
-        <f>B53*x_1</f>
+        <f t="shared" si="9"/>
         <v>-690.00000000000023</v>
       </c>
       <c r="D53">
-        <f>x_1-C53</f>
+        <f t="shared" si="10"/>
         <v>1290.0000000000002</v>
       </c>
       <c r="E53">
-        <f>(-(x_1+D53)+SQRT((x_1+D53)^2+4*(dd-1)*D53*x_1))/(2*(dd-1))</f>
-        <v>576.68834858293496</v>
+        <f t="shared" si="11"/>
+        <v>557.55710991019475</v>
       </c>
       <c r="F53">
-        <f>x_1-E53</f>
-        <v>23.311651417065036</v>
+        <f t="shared" si="12"/>
+        <v>42.442890089805246</v>
       </c>
       <c r="G53">
-        <f>Pn*(1-(F53/x_1)^2)</f>
-        <v>99.849046363391452</v>
+        <f t="shared" si="13"/>
+        <v>99.499611411340197</v>
       </c>
       <c r="H53">
-        <f>En*(2*(F53/x_1)-((F53/x_1)^2))</f>
-        <v>7.6195968357464698</v>
+        <f t="shared" si="14"/>
+        <v>13.647241441275279</v>
       </c>
       <c r="I53">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C53,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F53,0)^5</f>
-        <v>5.1816746012121686E-7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.0366440976343374E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.2000000000000004</v>
       </c>
       <c r="C54">
-        <f>B54*x_1</f>
+        <f t="shared" si="9"/>
         <v>-720.00000000000023</v>
       </c>
       <c r="D54">
-        <f>x_1-C54</f>
+        <f t="shared" si="10"/>
         <v>1320.0000000000002</v>
       </c>
       <c r="E54">
-        <f>(-(x_1+D54)+SQRT((x_1+D54)^2+4*(dd-1)*D54*x_1))/(2*(dd-1))</f>
-        <v>577.53760418519721</v>
+        <f t="shared" si="11"/>
+        <v>558.94845960907276</v>
       </c>
       <c r="F54">
-        <f>x_1-E54</f>
-        <v>22.46239581480279</v>
+        <f t="shared" si="12"/>
+        <v>41.051540390927244</v>
       </c>
       <c r="G54">
-        <f>Pn*(1-(F54/x_1)^2)</f>
-        <v>99.859844659516426</v>
+        <f t="shared" si="13"/>
+        <v>99.531880842092249</v>
       </c>
       <c r="H54">
-        <f>En*(2*(F54/x_1)-((F54/x_1)^2))</f>
-        <v>7.3473099311173549</v>
+        <f t="shared" si="14"/>
+        <v>13.215727639067989</v>
       </c>
       <c r="I54">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C54,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F54,0)^5</f>
-        <v>4.3041293406988107E-7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>8.7751030320674882E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.2500000000000004</v>
       </c>
       <c r="C55">
-        <f>B55*x_1</f>
+        <f t="shared" si="9"/>
         <v>-750.00000000000023</v>
       </c>
       <c r="D55">
-        <f>x_1-C55</f>
+        <f t="shared" si="10"/>
         <v>1350.0000000000002</v>
       </c>
       <c r="E55">
-        <f>(-(x_1+D55)+SQRT((x_1+D55)^2+4*(dd-1)*D55*x_1))/(2*(dd-1))</f>
-        <v>578.3286012912281</v>
+        <f t="shared" si="11"/>
+        <v>560.25483911749279</v>
       </c>
       <c r="F55">
-        <f>x_1-E55</f>
-        <v>21.671398708771903</v>
+        <f t="shared" si="12"/>
+        <v>39.745160882507207</v>
       </c>
       <c r="G55">
-        <f>Pn*(1-(F55/x_1)^2)</f>
-        <v>99.869541799445955</v>
+        <f t="shared" si="13"/>
+        <v>99.561200607339899</v>
       </c>
       <c r="H55">
-        <f>En*(2*(F55/x_1)-((F55/x_1)^2))</f>
-        <v>7.0933413690365903</v>
+        <f t="shared" si="14"/>
+        <v>12.809587568175631</v>
       </c>
       <c r="I55">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C55,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J55">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F55,0)^5</f>
-        <v>3.5978217782154384E-7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>7.4649384479466259E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.3000000000000005</v>
       </c>
       <c r="C56">
-        <f>B56*x_1</f>
+        <f t="shared" si="9"/>
         <v>-780.00000000000034</v>
       </c>
       <c r="D56">
-        <f>x_1-C56</f>
+        <f t="shared" si="10"/>
         <v>1380.0000000000005</v>
       </c>
       <c r="E56">
-        <f>(-(x_1+D56)+SQRT((x_1+D56)^2+4*(dd-1)*D56*x_1))/(2*(dd-1))</f>
-        <v>579.06700109636279</v>
+        <f t="shared" si="11"/>
+        <v>561.48351928654961</v>
       </c>
       <c r="F56">
-        <f>x_1-E56</f>
-        <v>20.932998903637213</v>
+        <f t="shared" si="12"/>
+        <v>38.516480713450392</v>
       </c>
       <c r="G56">
-        <f>Pn*(1-(F56/x_1)^2)</f>
-        <v>99.878280432472309</v>
+        <f t="shared" si="13"/>
+        <v>99.587911309291783</v>
       </c>
       <c r="H56">
-        <f>En*(2*(F56/x_1)-((F56/x_1)^2))</f>
-        <v>6.855946733684716</v>
+        <f t="shared" si="14"/>
+        <v>12.426738213775243</v>
       </c>
       <c r="I56">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C56,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J56">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F56,0)^5</f>
-        <v>3.0252563987134936E-7</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>6.380253384450575E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.3500000000000005</v>
       </c>
       <c r="C57">
-        <f>B57*x_1</f>
+        <f t="shared" si="9"/>
         <v>-810.00000000000034</v>
       </c>
       <c r="D57">
-        <f>x_1-C57</f>
+        <f t="shared" si="10"/>
         <v>1410.0000000000005</v>
       </c>
       <c r="E57">
-        <f>(-(x_1+D57)+SQRT((x_1+D57)^2+4*(dd-1)*D57*x_1))/(2*(dd-1))</f>
-        <v>579.75777064020883</v>
+        <f t="shared" si="11"/>
+        <v>562.64099538017797</v>
       </c>
       <c r="F57">
-        <f>x_1-E57</f>
-        <v>20.242229359791168</v>
+        <f t="shared" si="12"/>
+        <v>37.359004619822031</v>
       </c>
       <c r="G57">
-        <f>Pn*(1-(F57/x_1)^2)</f>
-        <v>99.886181152929339</v>
+        <f t="shared" si="13"/>
+        <v>99.612306881615581</v>
       </c>
       <c r="H57">
-        <f>En*(2*(F57/x_1)-((F57/x_1)^2))</f>
-        <v>6.6335909395263917</v>
+        <f t="shared" si="14"/>
+        <v>12.065308421556264</v>
       </c>
       <c r="I57">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C57,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J57">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F57,0)^5</f>
-        <v>2.5579770392230149E-7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>5.4774877795120139E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.4000000000000006</v>
       </c>
       <c r="C58">
-        <f>B58*x_1</f>
+        <f t="shared" si="9"/>
         <v>-840.00000000000034</v>
       </c>
       <c r="D58">
-        <f>x_1-C58</f>
+        <f t="shared" si="10"/>
         <v>1440.0000000000005</v>
       </c>
       <c r="E58">
-        <f>(-(x_1+D58)+SQRT((x_1+D58)^2+4*(dd-1)*D58*x_1))/(2*(dd-1))</f>
-        <v>580.40528362694818</v>
+        <f t="shared" si="11"/>
+        <v>563.73308364549791</v>
       </c>
       <c r="F58">
-        <f>x_1-E58</f>
-        <v>19.594716373051824</v>
+        <f t="shared" si="12"/>
+        <v>36.266916354502087</v>
       </c>
       <c r="G58">
-        <f>Pn*(1-(F58/x_1)^2)</f>
-        <v>99.893346413961012</v>
+        <f t="shared" si="13"/>
+        <v>99.63464188281543</v>
       </c>
       <c r="H58">
-        <f>En*(2*(F58/x_1)-((F58/x_1)^2))</f>
-        <v>6.4249185383116236</v>
+        <f t="shared" si="14"/>
+        <v>11.723614000982794</v>
       </c>
       <c r="I58">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C58,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J58">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F58,0)^5</f>
-        <v>2.1742017584487399E-7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>4.7223490866381742E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.4500000000000006</v>
       </c>
       <c r="C59">
-        <f>B59*x_1</f>
+        <f t="shared" si="9"/>
         <v>-870.00000000000034</v>
       </c>
       <c r="D59">
-        <f>x_1-C59</f>
+        <f t="shared" si="10"/>
         <v>1470.0000000000005</v>
       </c>
       <c r="E59">
-        <f>(-(x_1+D59)+SQRT((x_1+D59)^2+4*(dd-1)*D59*x_1))/(2*(dd-1))</f>
-        <v>581.01340458616994</v>
+        <f t="shared" si="11"/>
+        <v>564.76500446401872</v>
       </c>
       <c r="F59">
-        <f>x_1-E59</f>
-        <v>18.986595413830059</v>
+        <f t="shared" si="12"/>
+        <v>35.234995535981284</v>
       </c>
       <c r="G59">
-        <f>Pn*(1-(F59/x_1)^2)</f>
-        <v>99.899863665164318</v>
+        <f t="shared" si="13"/>
+        <v>99.655137524883159</v>
       </c>
       <c r="H59">
-        <f>En*(2*(F59/x_1)-((F59/x_1)^2))</f>
-        <v>6.228728803107666</v>
+        <f t="shared" si="14"/>
+        <v>11.400136036876923</v>
       </c>
       <c r="I59">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C59,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J59">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F59,0)^5</f>
-        <v>1.857121915989952E-7</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>4.0876719864980559E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.5000000000000007</v>
       </c>
       <c r="C60">
-        <f>B60*x_1</f>
+        <f t="shared" si="9"/>
         <v>-900.00000000000045</v>
       </c>
       <c r="D60">
-        <f>x_1-C60</f>
+        <f t="shared" si="10"/>
         <v>1500.0000000000005</v>
       </c>
       <c r="E60">
-        <f>(-(x_1+D60)+SQRT((x_1+D60)^2+4*(dd-1)*D60*x_1))/(2*(dd-1))</f>
-        <v>581.58555941756856</v>
+        <f t="shared" si="11"/>
+        <v>565.74145408933521</v>
       </c>
       <c r="F60">
-        <f>x_1-E60</f>
-        <v>18.414440582431439</v>
+        <f t="shared" si="12"/>
+        <v>34.258545910664793</v>
       </c>
       <c r="G60">
-        <f>Pn*(1-(F60/x_1)^2)</f>
-        <v>99.905807882787812</v>
+        <f t="shared" si="13"/>
+        <v>99.673986675579684</v>
       </c>
       <c r="H60">
-        <f>En*(2*(F60/x_1)-((F60/x_1)^2))</f>
-        <v>6.0439547435982854</v>
+        <f t="shared" si="14"/>
+        <v>11.093501979134619</v>
       </c>
       <c r="I60">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C60,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J60">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F60,0)^5</f>
-        <v>1.5936670148699265E-7</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>3.5518086663929321E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.5500000000000007</v>
       </c>
       <c r="C61">
-        <f>B61*x_1</f>
+        <f t="shared" si="9"/>
         <v>-930.00000000000045</v>
       </c>
       <c r="D61">
-        <f>x_1-C61</f>
+        <f t="shared" si="10"/>
         <v>1530.0000000000005</v>
       </c>
       <c r="E61">
-        <f>(-(x_1+D61)+SQRT((x_1+D61)^2+4*(dd-1)*D61*x_1))/(2*(dd-1))</f>
-        <v>582.12479476181011</v>
+        <f t="shared" si="11"/>
+        <v>566.66666666666663</v>
       </c>
       <c r="F61">
-        <f>x_1-E61</f>
-        <v>17.875205238189892</v>
+        <f t="shared" si="12"/>
+        <v>33.333333333333371</v>
       </c>
       <c r="G61">
-        <f>Pn*(1-(F61/x_1)^2)</f>
-        <v>99.911243621581264</v>
+        <f t="shared" si="13"/>
+        <v>99.691358024691354</v>
       </c>
       <c r="H61">
-        <f>En*(2*(F61/x_1)-((F61/x_1)^2))</f>
-        <v>5.8696453676445719</v>
+        <f t="shared" si="14"/>
+        <v>10.802469135802481</v>
       </c>
       <c r="I61">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C61,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F61,0)^5</f>
-        <v>1.3735994853974253E-7</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>3.0974097500558536E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.6000000000000008</v>
       </c>
       <c r="C62">
-        <f>B62*x_1</f>
+        <f t="shared" si="9"/>
         <v>-960.00000000000045</v>
       </c>
       <c r="D62">
-        <f>x_1-C62</f>
+        <f t="shared" si="10"/>
         <v>1560.0000000000005</v>
       </c>
       <c r="E62">
-        <f>(-(x_1+D62)+SQRT((x_1+D62)^2+4*(dd-1)*D62*x_1))/(2*(dd-1))</f>
-        <v>582.63382816470812</v>
+        <f t="shared" si="11"/>
+        <v>567.54446796632408</v>
       </c>
       <c r="F62">
-        <f>x_1-E62</f>
-        <v>17.36617183529188</v>
+        <f t="shared" si="12"/>
+        <v>32.455532033675922</v>
       </c>
       <c r="G62">
-        <f>Pn*(1-(F62/x_1)^2)</f>
-        <v>99.916226687718648</v>
+        <f t="shared" si="13"/>
+        <v>99.707399566780836</v>
       </c>
       <c r="H62">
-        <f>En*(2*(F62/x_1)-((F62/x_1)^2))</f>
-        <v>5.7049506328159358</v>
+        <f t="shared" si="14"/>
+        <v>10.525910244672817</v>
       </c>
       <c r="I62">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C62,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J62">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F62,0)^5</f>
-        <v>1.1888454626101683E-7</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>2.710494925883927E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.6500000000000008</v>
       </c>
       <c r="C63">
-        <f>B63*x_1</f>
+        <f t="shared" si="9"/>
         <v>-990.00000000000045</v>
       </c>
       <c r="D63">
-        <f>x_1-C63</f>
+        <f t="shared" si="10"/>
         <v>1590.0000000000005</v>
       </c>
       <c r="E63">
-        <f>(-(x_1+D63)+SQRT((x_1+D63)^2+4*(dd-1)*D63*x_1))/(2*(dd-1))</f>
-        <v>583.11509062511266</v>
+        <f t="shared" si="11"/>
+        <v>568.37832204077586</v>
       </c>
       <c r="F63">
-        <f>x_1-E63</f>
-        <v>16.884909374887343</v>
+        <f t="shared" si="12"/>
+        <v>31.621677959224144</v>
       </c>
       <c r="G63">
-        <f>Pn*(1-(F63/x_1)^2)</f>
-        <v>99.920805509833841</v>
+        <f t="shared" si="13"/>
+        <v>99.722241523067538</v>
       </c>
       <c r="H63">
-        <f>En*(2*(F63/x_1)-((F63/x_1)^2))</f>
-        <v>5.5491086347962923</v>
+        <f t="shared" si="14"/>
+        <v>10.262800842808915</v>
       </c>
       <c r="I63">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C63,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J63">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F63,0)^5</f>
-        <v>1.0329959166667476E-7</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>2.3797398974534532E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.7000000000000008</v>
       </c>
       <c r="C64">
-        <f>B64*x_1</f>
+        <f t="shared" si="9"/>
         <v>-1020.0000000000005</v>
       </c>
       <c r="D64">
-        <f>x_1-C64</f>
+        <f t="shared" si="10"/>
         <v>1620.0000000000005</v>
       </c>
       <c r="E64">
-        <f>(-(x_1+D64)+SQRT((x_1+D64)^2+4*(dd-1)*D64*x_1))/(2*(dd-1))</f>
-        <v>583.57076281730099</v>
+        <f t="shared" si="11"/>
+        <v>569.17137182762417</v>
       </c>
       <c r="F64">
-        <f>x_1-E64</f>
-        <v>16.429237182699012</v>
+        <f t="shared" si="12"/>
+        <v>30.828628172375829</v>
       </c>
       <c r="G64">
-        <f>Pn*(1-(F64/x_1)^2)</f>
-        <v>99.925022268220729</v>
+        <f t="shared" si="13"/>
+        <v>99.735998801391503</v>
       </c>
       <c r="H64">
-        <f>En*(2*(F64/x_1)-((F64/x_1)^2))</f>
-        <v>5.4014346624537319</v>
+        <f t="shared" si="14"/>
+        <v>10.012208192183442</v>
       </c>
       <c r="I64">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C64,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F64,0)^5</f>
-        <v>9.0093183178185438E-8</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>2.0959259425232631E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.7500000000000009</v>
       </c>
       <c r="C65">
-        <f>B65*x_1</f>
+        <f t="shared" si="9"/>
         <v>-1050.0000000000005</v>
       </c>
       <c r="D65">
-        <f>x_1-C65</f>
+        <f t="shared" si="10"/>
         <v>1650.0000000000005</v>
       </c>
       <c r="E65">
-        <f>(-(x_1+D65)+SQRT((x_1+D65)^2+4*(dd-1)*D65*x_1))/(2*(dd-1))</f>
-        <v>584.00280603953013</v>
+        <f t="shared" si="11"/>
+        <v>569.92647456322788</v>
       </c>
       <c r="F65">
-        <f>x_1-E65</f>
-        <v>15.997193960469872</v>
+        <f t="shared" si="12"/>
+        <v>30.073525436772115</v>
       </c>
       <c r="G65">
-        <f>Pn*(1-(F65/x_1)^2)</f>
-        <v>99.928913829275317</v>
+        <f t="shared" si="13"/>
+        <v>99.748773074389945</v>
       </c>
       <c r="H65">
-        <f>En*(2*(F65/x_1)-((F65/x_1)^2))</f>
-        <v>5.2613118160985977</v>
+        <f t="shared" si="14"/>
+        <v>9.7732815533139874</v>
       </c>
       <c r="I65">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C65,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F65,0)^5</f>
-        <v>7.885404697217024E-8</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.8515124890908297E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.8000000000000009</v>
       </c>
       <c r="C66">
-        <f>B66*x_1</f>
+        <f t="shared" si="9"/>
         <v>-1080.0000000000005</v>
       </c>
       <c r="D66">
-        <f>x_1-C66</f>
+        <f t="shared" si="10"/>
         <v>1680.0000000000005</v>
       </c>
       <c r="E66">
-        <f>(-(x_1+D66)+SQRT((x_1+D66)^2+4*(dd-1)*D66*x_1))/(2*(dd-1))</f>
-        <v>584.41298874890765</v>
+        <f t="shared" si="11"/>
+        <v>570.64623273929669</v>
       </c>
       <c r="F66">
-        <f>x_1-E66</f>
-        <v>15.587011251092349</v>
+        <f t="shared" si="12"/>
+        <v>29.353767260703307</v>
       </c>
       <c r="G66">
-        <f>Pn*(1-(F66/x_1)^2)</f>
-        <v>99.932512522293976</v>
+        <f t="shared" si="13"/>
+        <v>99.76065454100123</v>
       </c>
       <c r="H66">
-        <f>En*(2*(F66/x_1)-((F66/x_1)^2))</f>
-        <v>5.1281829393247609</v>
+        <f t="shared" si="14"/>
+        <v>9.5452436279023409</v>
       </c>
       <c r="I66">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C66,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F66,0)^5</f>
-        <v>6.9249904552055851E-8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.6403033321509635E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.850000000000001</v>
       </c>
       <c r="C67">
-        <f>B67*x_1</f>
+        <f t="shared" si="9"/>
         <v>-1110.0000000000007</v>
       </c>
       <c r="D67">
-        <f>x_1-C67</f>
+        <f t="shared" si="10"/>
         <v>1710.0000000000007</v>
       </c>
       <c r="E67">
-        <f>(-(x_1+D67)+SQRT((x_1+D67)^2+4*(dd-1)*D67*x_1))/(2*(dd-1))</f>
-        <v>584.80290938879716</v>
+        <f t="shared" si="11"/>
+        <v>571.33302122353905</v>
       </c>
       <c r="F67">
-        <f>x_1-E67</f>
-        <v>15.197090611202839</v>
+        <f t="shared" si="12"/>
+        <v>28.666978776460951</v>
       </c>
       <c r="G67">
-        <f>Pn*(1-(F67/x_1)^2)</f>
-        <v>99.935846788043023</v>
+        <f t="shared" si="13"/>
+        <v>99.771723424397209</v>
       </c>
       <c r="H67">
-        <f>En*(2*(F67/x_1)-((F67/x_1)^2))</f>
-        <v>5.0015436584439712</v>
+        <f t="shared" si="14"/>
+        <v>9.327383016550856</v>
       </c>
       <c r="I67">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C67,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F67,0)^5</f>
-        <v>6.1010867373257665E-8</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.4571845542684896E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.900000000000001</v>
       </c>
       <c r="C68">
-        <f>B68*x_1</f>
+        <f t="shared" si="9"/>
         <v>-1140.0000000000007</v>
       </c>
       <c r="D68">
-        <f>x_1-C68</f>
+        <f t="shared" si="10"/>
         <v>1740.0000000000007</v>
       </c>
       <c r="E68">
-        <f>(-(x_1+D68)+SQRT((x_1+D68)^2+4*(dd-1)*D68*x_1))/(2*(dd-1))</f>
-        <v>585.17401609077717</v>
+        <f t="shared" si="11"/>
+        <v>571.98901107194808</v>
       </c>
       <c r="F68">
-        <f>x_1-E68</f>
-        <v>14.825983909222828</v>
+        <f t="shared" si="12"/>
+        <v>28.010988928051916</v>
       </c>
       <c r="G68">
-        <f>Pn*(1-(F68/x_1)^2)</f>
-        <v>99.938941722534295</v>
+        <f t="shared" si="13"/>
+        <v>99.782051249797931</v>
       </c>
       <c r="H68">
-        <f>En*(2*(F68/x_1)-((F68/x_1)^2))</f>
-        <v>4.8809363589419057</v>
+        <f t="shared" si="14"/>
+        <v>9.1190475591485693</v>
       </c>
       <c r="I68">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C68,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F68,0)^5</f>
-        <v>5.3916607359075335E-8</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.297917666998564E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-1.9500000000000011</v>
       </c>
       <c r="C69">
-        <f>B69*x_1</f>
+        <f t="shared" si="9"/>
         <v>-1170.0000000000007</v>
       </c>
       <c r="D69">
-        <f>x_1-C69</f>
+        <f t="shared" si="10"/>
         <v>1770.0000000000007</v>
       </c>
       <c r="E69">
-        <f>(-(x_1+D69)+SQRT((x_1+D69)^2+4*(dd-1)*D69*x_1))/(2*(dd-1))</f>
-        <v>585.52762373258872</v>
+        <f t="shared" si="11"/>
+        <v>572.61619048167609</v>
       </c>
       <c r="F69">
-        <f>x_1-E69</f>
-        <v>14.472376267411278</v>
+        <f t="shared" si="12"/>
+        <v>27.383809518323915</v>
       </c>
       <c r="G69">
-        <f>Pn*(1-(F69/x_1)^2)</f>
-        <v>99.941819534770687</v>
+        <f t="shared" si="13"/>
+        <v>99.791701937851158</v>
       </c>
       <c r="H69">
-        <f>En*(2*(F69/x_1)-((F69/x_1)^2))</f>
-        <v>4.7659449572411123</v>
+        <f t="shared" si="14"/>
+        <v>8.9196384439591245</v>
       </c>
       <c r="I69">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C69,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F69,0)^5</f>
-        <v>4.778638313620552E-8</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.1589755141074349E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-2.0000000000000009</v>
       </c>
       <c r="C70">
-        <f>B70*x_1</f>
+        <f t="shared" si="9"/>
         <v>-1200.0000000000005</v>
       </c>
       <c r="D70">
-        <f>x_1-C70</f>
+        <f t="shared" si="10"/>
         <v>1800.0000000000005</v>
       </c>
       <c r="E70">
-        <f>(-(x_1+D70)+SQRT((x_1+D70)^2+4*(dd-1)*D70*x_1))/(2*(dd-1))</f>
-        <v>585.86492875177225</v>
+        <f t="shared" si="11"/>
+        <v>573.21638326724144</v>
       </c>
       <c r="F70">
-        <f>x_1-E70</f>
-        <v>14.135071248227746</v>
+        <f t="shared" si="12"/>
+        <v>26.78361673275856</v>
       </c>
       <c r="G70">
-        <f>Pn*(1-(F70/x_1)^2)</f>
-        <v>99.944499933557651</v>
+        <f t="shared" si="13"/>
+        <v>99.800732742975754</v>
       </c>
       <c r="H70">
-        <f>En*(2*(F70/x_1)-((F70/x_1)^2))</f>
-        <v>4.6561903496335608</v>
+        <f t="shared" si="14"/>
+        <v>8.7286049872286018</v>
       </c>
       <c r="I70">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C70,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F70,0)^5</f>
-        <v>4.2471240320681149E-8</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1.0374114647911774E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-2.0500000000000007</v>
       </c>
       <c r="C71">
-        <f>B71*x_1</f>
+        <f t="shared" si="9"/>
         <v>-1230.0000000000005</v>
       </c>
       <c r="D71">
-        <f>x_1-C71</f>
+        <f t="shared" si="10"/>
         <v>1830.0000000000005</v>
       </c>
       <c r="E71">
-        <f>(-(x_1+D71)+SQRT((x_1+D71)^2+4*(dd-1)*D71*x_1))/(2*(dd-1))</f>
-        <v>586.18702204799047</v>
+        <f t="shared" si="11"/>
+        <v>573.79126518699888</v>
       </c>
       <c r="F71">
-        <f>x_1-E71</f>
-        <v>13.812977952009533</v>
+        <f t="shared" si="12"/>
+        <v>26.208734813001115</v>
       </c>
       <c r="G71">
-        <f>Pn*(1-(F71/x_1)^2)</f>
-        <v>99.947000455582582</v>
+        <f t="shared" si="13"/>
+        <v>99.809195060972726</v>
       </c>
       <c r="H71">
-        <f>En*(2*(F71/x_1)-((F71/x_1)^2))</f>
-        <v>4.5513264395857611</v>
+        <f t="shared" si="14"/>
+        <v>8.5454399986397558</v>
       </c>
       <c r="I71">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C71,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F71,0)^5</f>
-        <v>3.784787735248296E-8</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>9.3075465600930973E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>-2.1000000000000005</v>
       </c>
       <c r="C72">
-        <f>B72*x_1</f>
+        <f t="shared" si="9"/>
         <v>-1260.0000000000002</v>
       </c>
       <c r="D72">
-        <f>x_1-C72</f>
+        <f t="shared" si="10"/>
         <v>1860.0000000000002</v>
       </c>
       <c r="E72">
-        <f>(-(x_1+D72)+SQRT((x_1+D72)^2+4*(dd-1)*D72*x_1))/(2*(dd-1))</f>
-        <v>586.49490025244847</v>
+        <f t="shared" si="11"/>
+        <v>574.34237839968591</v>
       </c>
       <c r="F72">
-        <f>x_1-E72</f>
-        <v>13.505099747551526</v>
+        <f t="shared" si="12"/>
+        <v>25.657621600314087</v>
       </c>
       <c r="G72">
-        <f>Pn*(1-(F72/x_1)^2)</f>
-        <v>99.949336744669083</v>
+        <f t="shared" si="13"/>
+        <v>99.817135126059753</v>
       </c>
       <c r="H72">
-        <f>En*(2*(F72/x_1)-((F72/x_1)^2))</f>
-        <v>4.4510366605195877</v>
+        <f t="shared" si="14"/>
+        <v>8.3696756594977764</v>
       </c>
       <c r="I72">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(C72,0)^5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f>x_1^(-4)/4 * (4/9)^4 *MAX(F72,0)^5</f>
-        <v>3.3813795024489408E-8</v>
+        <f t="shared" si="16"/>
+        <v>8.3692571877265869E-7</v>
       </c>
     </row>
   </sheetData>
